--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="B2:P51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>10</v>
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>10</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>10</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>10</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13" t="n">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F12" s="13" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F13" s="13" t="n">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13" t="n">
         <v>10</v>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F15" s="13" t="n">
         <v>10</v>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F16" s="13" t="n">
         <v>10</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F17" s="13" t="n">
         <v>10</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F18" s="13" t="n">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F19" s="13" t="n">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F20" s="13" t="n">
         <v>10</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F21" s="13" t="n">
         <v>10</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F22" s="13" t="n">
         <v>10</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F23" s="13" t="n">
         <v>10</v>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F24" s="13" t="n">
         <v>10</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F25" s="13" t="n">
         <v>10</v>
@@ -1425,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F26" s="13" t="n">
         <v>10</v>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F27" s="13" t="n">
         <v>10</v>
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F28" s="13" t="n">
         <v>10</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F29" s="13" t="n">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F30" s="13" t="n">
         <v>10</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F31" s="13" t="n">
         <v>10</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F32" s="13" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F33" s="13" t="n">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F34" s="13" t="n">
         <v>10</v>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F35" s="13" t="n">
         <v>10</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F36" s="13" t="n">
         <v>10</v>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F37" s="13" t="n">
         <v>10</v>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F38" s="13" t="n">
         <v>10</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F39" s="13" t="n">
         <v>10</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F40" s="13" t="n">
         <v>10</v>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F41" s="13" t="n">
         <v>10</v>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F42" s="13" t="n">
         <v>10</v>
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F43" s="13" t="n">
         <v>10</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F44" s="13" t="n">
         <v>10</v>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F45" s="13" t="n">
         <v>10</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F46" s="13" t="n">
         <v>10</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F47" s="13" t="n">
         <v>10</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F48" s="13" t="n">
         <v>10</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F49" s="13" t="n">
         <v>10</v>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="12" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F50" s="13" t="n">
         <v>10</v>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E4:E51 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,7 +2582,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E4:E51 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="B2:P51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4:E51"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,7 +483,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="10" t="n">
         <v>20</v>
@@ -530,7 +530,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="16" t="s">
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="16" t="s">
@@ -616,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="16" t="s">
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="19"/>
       <c r="K8" s="16" t="s">
@@ -702,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="16" t="s">
@@ -745,7 +745,7 @@
         <v>16</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="16" t="s">
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="16" t="s">
@@ -831,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="16" t="s">
@@ -874,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="16" t="s">
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="16" t="s">
@@ -960,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="I15" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="16" t="s">
@@ -1003,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="16" t="s">
@@ -1046,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="16" t="s">
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="16" t="s">
@@ -1132,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="16" t="s">
@@ -1175,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="15" t="n">
         <v>70</v>
@@ -1222,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="I21" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="16" t="s">
@@ -1265,7 +1265,7 @@
         <v>16</v>
       </c>
       <c r="I22" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="16" t="s">
@@ -1308,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="I23" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="16" t="s">
@@ -1351,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="I24" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="19"/>
       <c r="K24" s="16" t="s">
@@ -1394,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="19"/>
       <c r="K25" s="16" t="s">
@@ -1437,7 +1437,7 @@
         <v>16</v>
       </c>
       <c r="I26" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="19"/>
       <c r="K26" s="16" t="s">
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="16" t="s">
@@ -1523,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" s="19"/>
       <c r="K28" s="16" t="s">
@@ -1566,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="16" t="s">
@@ -1609,7 +1609,7 @@
         <v>16</v>
       </c>
       <c r="I30" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="16" t="s">
@@ -1652,7 +1652,7 @@
         <v>16</v>
       </c>
       <c r="I31" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="16" t="s">
@@ -1697,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="16" t="s">
@@ -1740,7 +1740,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="16" t="s">
@@ -1783,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="16" t="s">
@@ -1826,7 +1826,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="16" t="s">
@@ -1869,7 +1869,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="19"/>
       <c r="K36" s="16" t="s">
@@ -1912,7 +1912,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="16" t="s">
@@ -1955,7 +1955,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="16" t="s">
@@ -1998,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="19"/>
       <c r="K39" s="16" t="s">
@@ -2041,7 +2041,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="16" t="s">
@@ -2084,7 +2084,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="16" t="s">
@@ -2127,7 +2127,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" s="19"/>
       <c r="K42" s="16" t="s">
@@ -2170,7 +2170,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="16" t="s">
@@ -2213,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" s="19"/>
       <c r="K44" s="16" t="s">
@@ -2256,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" s="19"/>
       <c r="K45" s="16" t="s">
@@ -2299,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="19"/>
       <c r="K46" s="16" t="s">
@@ -2342,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="16" t="s">
@@ -2385,7 +2385,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J48" s="19"/>
       <c r="K48" s="16" t="s">
@@ -2428,7 +2428,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" s="19"/>
       <c r="K49" s="16" t="s">
@@ -2471,7 +2471,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" s="19"/>
       <c r="K50" s="16" t="s">
@@ -2514,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="I51" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" s="19"/>
       <c r="K51" s="16" t="s">
@@ -2556,7 +2556,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E4:E51 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,7 +2582,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E4:E51 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -533,7 +533,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -545,10 +545,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.000254504733788048"/>
-          <c:y val="0.0295993621686267"/>
-          <c:w val="0.956861447622926"/>
-          <c:h val="0.927048036675304"/>
+          <c:x val="0.000254524167069663"/>
+          <c:y val="0.0296082145349417"/>
+          <c:w val="0.956781796431571"/>
+          <c:h val="0.926727145847872"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -678,76 +678,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,11 +755,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="30119123"/>
-        <c:axId val="11116667"/>
+        <c:axId val="64651742"/>
+        <c:axId val="82389876"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30119123"/>
+        <c:axId val="64651742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +791,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11116667"/>
+        <c:crossAx val="82389876"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11116667"/>
+        <c:axId val="82389876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30119123"/>
+        <c:crossAx val="64651742"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -871,13 +871,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>416520</xdr:colOff>
+      <xdr:colOff>246600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
@@ -887,8 +887,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10998360" y="688320"/>
-        <a:ext cx="14144760" cy="3611880"/>
+        <a:off x="10829520" y="689400"/>
+        <a:ext cx="14143680" cy="3610800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -909,10 +909,10 @@
   <dimension ref="B2:P51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K4" s="14" t="s">
         <v>14</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>14</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>14</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>14</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>14</v>
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>14</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
@@ -1307,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>15</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>15</v>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>15</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>15</v>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>15</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>15</v>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>15</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>15</v>
@@ -1638,13 +1638,17 @@
         <v>1</v>
       </c>
       <c r="G19" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>60</v>
+      </c>
       <c r="K19" s="14" t="s">
         <v>14</v>
       </c>
@@ -1679,17 +1683,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" s="10" t="n">
-        <v>70</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J20" s="10"/>
       <c r="K20" s="14" t="s">
         <v>14</v>
       </c>
@@ -1726,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="14" t="s">
@@ -1766,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="14" t="s">
@@ -1809,16 +1811,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="14" t="s">
@@ -1852,16 +1854,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="14" t="s">
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>14</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>14</v>
@@ -1981,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>14</v>
@@ -2024,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>14</v>
@@ -2067,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>14</v>
@@ -2110,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>14</v>
@@ -2153,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>14</v>
@@ -2198,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>14</v>
@@ -2241,17 +2243,15 @@
         <v>0</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="10" t="n">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="14" t="s">
         <v>14</v>
@@ -2284,17 +2284,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="10" t="n">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="14" t="s">
         <v>14</v>
@@ -2327,10 +2325,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>15</v>
@@ -2371,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>15</v>
@@ -2412,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>15</v>
@@ -2453,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>15</v>
@@ -2494,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>15</v>
@@ -2535,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>15</v>
@@ -2576,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>15</v>
@@ -2617,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>15</v>
@@ -2658,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>15</v>
@@ -2699,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>14</v>
@@ -2744,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>14</v>
@@ -2784,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>14</v>
@@ -2827,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>14</v>
@@ -2870,10 +2868,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>14</v>
@@ -2913,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>14</v>
@@ -2956,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>14</v>
@@ -2999,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>14</v>
@@ -3050,10 +3048,10 @@
   <dimension ref="B2:P51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -3137,24 +3135,21 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="n">
-        <f aca="false">'User 1'!D4</f>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -3171,24 +3166,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="n">
-        <f aca="false">'User 1'!D5</f>
         <v>1</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
@@ -3205,24 +3197,21 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="n">
-        <f aca="false">'User 1'!D6</f>
         <v>1</v>
       </c>
       <c r="E6" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -3239,24 +3228,21 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="n">
-        <f aca="false">'User 1'!D7</f>
         <v>1</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
@@ -3273,24 +3259,21 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="n">
-        <f aca="false">'User 1'!D8</f>
         <v>1</v>
       </c>
       <c r="E8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G8" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -3307,24 +3290,21 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <f aca="false">'User 1'!D9</f>
         <v>1</v>
       </c>
       <c r="E9" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
@@ -3341,24 +3321,21 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="n">
-        <f aca="false">'User 1'!D10</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
@@ -3375,24 +3352,21 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="n">
-        <f aca="false">'User 1'!D11</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
@@ -3409,24 +3383,21 @@
         <v>8</v>
       </c>
       <c r="D12" s="11" t="n">
-        <f aca="false">'User 1'!D12</f>
         <v>3</v>
       </c>
       <c r="E12" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
@@ -3443,24 +3414,21 @@
         <v>9</v>
       </c>
       <c r="D13" s="11" t="n">
-        <f aca="false">'User 1'!D13</f>
         <v>3</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G13" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
@@ -3477,24 +3445,21 @@
         <v>10</v>
       </c>
       <c r="D14" s="11" t="n">
-        <f aca="false">'User 1'!D14</f>
         <v>3</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
@@ -3511,24 +3476,21 @@
         <v>11</v>
       </c>
       <c r="D15" s="11" t="n">
-        <f aca="false">'User 1'!D15</f>
         <v>2</v>
       </c>
       <c r="E15" s="12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G15" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="14"/>
       <c r="L15" s="15"/>
@@ -3545,24 +3507,21 @@
         <v>12</v>
       </c>
       <c r="D16" s="11" t="n">
-        <f aca="false">'User 1'!D16</f>
         <v>2</v>
       </c>
       <c r="E16" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
@@ -3579,24 +3538,21 @@
         <v>13</v>
       </c>
       <c r="D17" s="11" t="n">
-        <f aca="false">'User 1'!D17</f>
         <v>2</v>
       </c>
       <c r="E17" s="12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="14"/>
       <c r="L17" s="15"/>
@@ -3613,24 +3569,21 @@
         <v>14</v>
       </c>
       <c r="D18" s="11" t="n">
-        <f aca="false">'User 1'!D18</f>
         <v>2</v>
       </c>
       <c r="E18" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="14"/>
       <c r="L18" s="15"/>
@@ -3647,24 +3600,21 @@
         <v>15</v>
       </c>
       <c r="D19" s="11" t="n">
-        <f aca="false">'User 1'!D19</f>
         <v>2</v>
       </c>
       <c r="E19" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G19" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="14"/>
       <c r="L19" s="15"/>
@@ -3681,24 +3631,21 @@
         <v>16</v>
       </c>
       <c r="D20" s="11" t="n">
-        <f aca="false">'User 1'!D20</f>
         <v>3</v>
       </c>
       <c r="E20" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="14"/>
       <c r="L20" s="15"/>
@@ -3715,24 +3662,21 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="n">
-        <f aca="false">'User 1'!D21</f>
         <v>3</v>
       </c>
       <c r="E21" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G21" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="14"/>
       <c r="L21" s="15"/>
@@ -3749,24 +3693,21 @@
         <v>18</v>
       </c>
       <c r="D22" s="11" t="n">
-        <f aca="false">'User 1'!D22</f>
         <v>3</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="14"/>
       <c r="L22" s="15"/>
@@ -3783,24 +3724,21 @@
         <v>19</v>
       </c>
       <c r="D23" s="11" t="n">
-        <f aca="false">'User 1'!D23</f>
         <v>3</v>
       </c>
       <c r="E23" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G23" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="14"/>
       <c r="L23" s="15"/>
@@ -3817,24 +3755,21 @@
         <v>20</v>
       </c>
       <c r="D24" s="11" t="n">
-        <f aca="false">'User 1'!D24</f>
         <v>3</v>
       </c>
       <c r="E24" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
@@ -3851,24 +3786,21 @@
         <v>21</v>
       </c>
       <c r="D25" s="11" t="n">
-        <f aca="false">'User 1'!D25</f>
         <v>3</v>
       </c>
       <c r="E25" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
@@ -3885,24 +3817,21 @@
         <v>22</v>
       </c>
       <c r="D26" s="11" t="n">
-        <f aca="false">'User 1'!D26</f>
         <v>1</v>
       </c>
       <c r="E26" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
@@ -3919,24 +3848,21 @@
         <v>23</v>
       </c>
       <c r="D27" s="11" t="n">
-        <f aca="false">'User 1'!D27</f>
         <v>1</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G27" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="14"/>
       <c r="L27" s="15"/>
@@ -3953,24 +3879,21 @@
         <v>0</v>
       </c>
       <c r="D28" s="11" t="n">
-        <f aca="false">'User 1'!D28</f>
         <v>1</v>
       </c>
       <c r="E28" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G28" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="14"/>
       <c r="L28" s="15"/>
@@ -3987,24 +3910,21 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="n">
-        <f aca="false">'User 1'!D29</f>
         <v>1</v>
       </c>
       <c r="E29" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="14"/>
       <c r="L29" s="15"/>
@@ -4021,24 +3941,21 @@
         <v>2</v>
       </c>
       <c r="D30" s="11" t="n">
-        <f aca="false">'User 1'!D30</f>
         <v>1</v>
       </c>
       <c r="E30" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="14"/>
       <c r="L30" s="15"/>
@@ -4055,24 +3972,21 @@
         <v>3</v>
       </c>
       <c r="D31" s="11" t="n">
-        <f aca="false">'User 1'!D31</f>
         <v>1</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G31" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="14"/>
       <c r="L31" s="15"/>
@@ -4089,24 +4003,21 @@
         <v>4</v>
       </c>
       <c r="D32" s="11" t="n">
-        <f aca="false">'User 1'!D32</f>
         <v>1</v>
       </c>
       <c r="E32" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="14"/>
       <c r="L32" s="15"/>
@@ -4123,24 +4034,21 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <f aca="false">'User 1'!D33</f>
         <v>1</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G33" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="14"/>
       <c r="L33" s="15"/>
@@ -4157,24 +4065,21 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="n">
-        <f aca="false">'User 1'!D34</f>
         <v>3</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G34" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="14"/>
       <c r="L34" s="15"/>
@@ -4191,24 +4096,21 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="n">
-        <f aca="false">'User 1'!D35</f>
         <v>3</v>
       </c>
       <c r="E35" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G35" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="14"/>
       <c r="L35" s="15"/>
@@ -4225,24 +4127,21 @@
         <v>8</v>
       </c>
       <c r="D36" s="11" t="n">
-        <f aca="false">'User 1'!D36</f>
         <v>3</v>
       </c>
       <c r="E36" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="14"/>
       <c r="L36" s="15"/>
@@ -4259,24 +4158,21 @@
         <v>9</v>
       </c>
       <c r="D37" s="11" t="n">
-        <f aca="false">'User 1'!D37</f>
         <v>3</v>
       </c>
       <c r="E37" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="14"/>
       <c r="L37" s="15"/>
@@ -4293,24 +4189,21 @@
         <v>10</v>
       </c>
       <c r="D38" s="11" t="n">
-        <f aca="false">'User 1'!D38</f>
         <v>3</v>
       </c>
       <c r="E38" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="14"/>
       <c r="L38" s="15"/>
@@ -4327,24 +4220,21 @@
         <v>11</v>
       </c>
       <c r="D39" s="11" t="n">
-        <f aca="false">'User 1'!D39</f>
         <v>2</v>
       </c>
       <c r="E39" s="12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="14"/>
       <c r="L39" s="15"/>
@@ -4361,24 +4251,21 @@
         <v>12</v>
       </c>
       <c r="D40" s="11" t="n">
-        <f aca="false">'User 1'!D40</f>
         <v>2</v>
       </c>
       <c r="E40" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="14"/>
       <c r="L40" s="15"/>
@@ -4395,24 +4282,21 @@
         <v>13</v>
       </c>
       <c r="D41" s="11" t="n">
-        <f aca="false">'User 1'!D41</f>
         <v>2</v>
       </c>
       <c r="E41" s="12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="14"/>
       <c r="L41" s="15"/>
@@ -4429,24 +4313,21 @@
         <v>14</v>
       </c>
       <c r="D42" s="11" t="n">
-        <f aca="false">'User 1'!D42</f>
         <v>2</v>
       </c>
       <c r="E42" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="14"/>
       <c r="L42" s="15"/>
@@ -4463,24 +4344,21 @@
         <v>15</v>
       </c>
       <c r="D43" s="11" t="n">
-        <f aca="false">'User 1'!D43</f>
         <v>2</v>
       </c>
       <c r="E43" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G43" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="14"/>
       <c r="L43" s="15"/>
@@ -4497,24 +4375,21 @@
         <v>16</v>
       </c>
       <c r="D44" s="11" t="n">
-        <f aca="false">'User 1'!D44</f>
         <v>3</v>
       </c>
       <c r="E44" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G44" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="14"/>
       <c r="L44" s="15"/>
@@ -4531,24 +4406,21 @@
         <v>17</v>
       </c>
       <c r="D45" s="11" t="n">
-        <f aca="false">'User 1'!D45</f>
         <v>3</v>
       </c>
       <c r="E45" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G45" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="14"/>
       <c r="L45" s="15"/>
@@ -4565,24 +4437,21 @@
         <v>18</v>
       </c>
       <c r="D46" s="11" t="n">
-        <f aca="false">'User 1'!D46</f>
         <v>3</v>
       </c>
       <c r="E46" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G46" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="14"/>
       <c r="L46" s="15"/>
@@ -4599,24 +4468,21 @@
         <v>19</v>
       </c>
       <c r="D47" s="11" t="n">
-        <f aca="false">'User 1'!D47</f>
         <v>3</v>
       </c>
       <c r="E47" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="14"/>
       <c r="L47" s="15"/>
@@ -4633,24 +4499,21 @@
         <v>20</v>
       </c>
       <c r="D48" s="11" t="n">
-        <f aca="false">'User 1'!D48</f>
         <v>3</v>
       </c>
       <c r="E48" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="14"/>
       <c r="L48" s="15"/>
@@ -4667,24 +4530,21 @@
         <v>21</v>
       </c>
       <c r="D49" s="11" t="n">
-        <f aca="false">'User 1'!D49</f>
         <v>3</v>
       </c>
       <c r="E49" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="14"/>
       <c r="L49" s="15"/>
@@ -4701,24 +4561,21 @@
         <v>22</v>
       </c>
       <c r="D50" s="11" t="n">
-        <f aca="false">'User 1'!D50</f>
         <v>1</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I50" s="10"/>
       <c r="J50" s="10"/>
       <c r="K50" s="14"/>
       <c r="L50" s="15"/>
@@ -4735,24 +4592,21 @@
         <v>23</v>
       </c>
       <c r="D51" s="11" t="n">
-        <f aca="false">'User 1'!D51</f>
         <v>1</v>
       </c>
       <c r="E51" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G51" s="13" t="n">
         <v>100</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="10" t="n">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I51" s="10"/>
       <c r="J51" s="10"/>
       <c r="K51" s="14"/>
       <c r="L51" s="15"/>
@@ -4782,11 +4636,11 @@
   </sheetPr>
   <dimension ref="B2:P51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -4870,7 +4724,6 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="n">
-        <f aca="false">'User 1'!D4</f>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="n">
@@ -4906,7 +4759,6 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="n">
-        <f aca="false">'User 1'!D5</f>
         <v>1</v>
       </c>
       <c r="E5" s="12" t="n">
@@ -4940,7 +4792,6 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="n">
-        <f aca="false">'User 1'!D6</f>
         <v>1</v>
       </c>
       <c r="E6" s="12" t="n">
@@ -4974,7 +4825,6 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="n">
-        <f aca="false">'User 1'!D7</f>
         <v>1</v>
       </c>
       <c r="E7" s="12" t="n">
@@ -5008,7 +4858,6 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="n">
-        <f aca="false">'User 1'!D8</f>
         <v>1</v>
       </c>
       <c r="E8" s="12" t="n">
@@ -5042,7 +4891,6 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <f aca="false">'User 1'!D9</f>
         <v>1</v>
       </c>
       <c r="E9" s="12" t="n">
@@ -5076,7 +4924,6 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="n">
-        <f aca="false">'User 1'!D10</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="n">
@@ -5110,7 +4957,6 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="n">
-        <f aca="false">'User 1'!D11</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="n">
@@ -5142,7 +4988,6 @@
         <v>8</v>
       </c>
       <c r="D12" s="11" t="n">
-        <f aca="false">'User 1'!D12</f>
         <v>3</v>
       </c>
       <c r="E12" s="12" t="n">
@@ -5174,7 +5019,6 @@
         <v>9</v>
       </c>
       <c r="D13" s="11" t="n">
-        <f aca="false">'User 1'!D13</f>
         <v>3</v>
       </c>
       <c r="E13" s="12" t="n">
@@ -5206,7 +5050,6 @@
         <v>10</v>
       </c>
       <c r="D14" s="11" t="n">
-        <f aca="false">'User 1'!D14</f>
         <v>3</v>
       </c>
       <c r="E14" s="12" t="n">
@@ -5238,7 +5081,6 @@
         <v>11</v>
       </c>
       <c r="D15" s="11" t="n">
-        <f aca="false">'User 1'!D15</f>
         <v>2</v>
       </c>
       <c r="E15" s="12" t="n">
@@ -5270,7 +5112,6 @@
         <v>12</v>
       </c>
       <c r="D16" s="11" t="n">
-        <f aca="false">'User 1'!D16</f>
         <v>2</v>
       </c>
       <c r="E16" s="12" t="n">
@@ -5302,7 +5143,6 @@
         <v>13</v>
       </c>
       <c r="D17" s="11" t="n">
-        <f aca="false">'User 1'!D17</f>
         <v>2</v>
       </c>
       <c r="E17" s="12" t="n">
@@ -5334,7 +5174,6 @@
         <v>14</v>
       </c>
       <c r="D18" s="11" t="n">
-        <f aca="false">'User 1'!D18</f>
         <v>2</v>
       </c>
       <c r="E18" s="12" t="n">
@@ -5366,7 +5205,6 @@
         <v>15</v>
       </c>
       <c r="D19" s="11" t="n">
-        <f aca="false">'User 1'!D19</f>
         <v>2</v>
       </c>
       <c r="E19" s="12" t="n">
@@ -5398,7 +5236,6 @@
         <v>16</v>
       </c>
       <c r="D20" s="11" t="n">
-        <f aca="false">'User 1'!D20</f>
         <v>3</v>
       </c>
       <c r="E20" s="12" t="n">
@@ -5434,7 +5271,6 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="n">
-        <f aca="false">'User 1'!D21</f>
         <v>3</v>
       </c>
       <c r="E21" s="12" t="n">
@@ -5468,7 +5304,6 @@
         <v>18</v>
       </c>
       <c r="D22" s="11" t="n">
-        <f aca="false">'User 1'!D22</f>
         <v>3</v>
       </c>
       <c r="E22" s="12" t="n">
@@ -5502,7 +5337,6 @@
         <v>19</v>
       </c>
       <c r="D23" s="11" t="n">
-        <f aca="false">'User 1'!D23</f>
         <v>3</v>
       </c>
       <c r="E23" s="12" t="n">
@@ -5536,7 +5370,6 @@
         <v>20</v>
       </c>
       <c r="D24" s="11" t="n">
-        <f aca="false">'User 1'!D24</f>
         <v>3</v>
       </c>
       <c r="E24" s="12" t="n">
@@ -5570,7 +5403,6 @@
         <v>21</v>
       </c>
       <c r="D25" s="11" t="n">
-        <f aca="false">'User 1'!D25</f>
         <v>3</v>
       </c>
       <c r="E25" s="12" t="n">
@@ -5604,7 +5436,6 @@
         <v>22</v>
       </c>
       <c r="D26" s="11" t="n">
-        <f aca="false">'User 1'!D26</f>
         <v>1</v>
       </c>
       <c r="E26" s="12" t="n">
@@ -5638,7 +5469,6 @@
         <v>23</v>
       </c>
       <c r="D27" s="11" t="n">
-        <f aca="false">'User 1'!D27</f>
         <v>1</v>
       </c>
       <c r="E27" s="12" t="n">
@@ -5672,7 +5502,6 @@
         <v>0</v>
       </c>
       <c r="D28" s="11" t="n">
-        <f aca="false">'User 1'!D28</f>
         <v>1</v>
       </c>
       <c r="E28" s="12" t="n">
@@ -5706,7 +5535,6 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="n">
-        <f aca="false">'User 1'!D29</f>
         <v>1</v>
       </c>
       <c r="E29" s="12" t="n">
@@ -5740,7 +5568,6 @@
         <v>2</v>
       </c>
       <c r="D30" s="11" t="n">
-        <f aca="false">'User 1'!D30</f>
         <v>1</v>
       </c>
       <c r="E30" s="12" t="n">
@@ -5774,7 +5601,6 @@
         <v>3</v>
       </c>
       <c r="D31" s="11" t="n">
-        <f aca="false">'User 1'!D31</f>
         <v>1</v>
       </c>
       <c r="E31" s="12" t="n">
@@ -5808,7 +5634,6 @@
         <v>4</v>
       </c>
       <c r="D32" s="11" t="n">
-        <f aca="false">'User 1'!D32</f>
         <v>1</v>
       </c>
       <c r="E32" s="12" t="n">
@@ -5842,7 +5667,6 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <f aca="false">'User 1'!D33</f>
         <v>1</v>
       </c>
       <c r="E33" s="12" t="n">
@@ -5876,7 +5700,6 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="n">
-        <f aca="false">'User 1'!D34</f>
         <v>3</v>
       </c>
       <c r="E34" s="12" t="n">
@@ -5910,7 +5733,6 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="n">
-        <f aca="false">'User 1'!D35</f>
         <v>3</v>
       </c>
       <c r="E35" s="12" t="n">
@@ -5942,7 +5764,6 @@
         <v>8</v>
       </c>
       <c r="D36" s="11" t="n">
-        <f aca="false">'User 1'!D36</f>
         <v>3</v>
       </c>
       <c r="E36" s="12" t="n">
@@ -5974,7 +5795,6 @@
         <v>9</v>
       </c>
       <c r="D37" s="11" t="n">
-        <f aca="false">'User 1'!D37</f>
         <v>3</v>
       </c>
       <c r="E37" s="12" t="n">
@@ -6006,7 +5826,6 @@
         <v>10</v>
       </c>
       <c r="D38" s="11" t="n">
-        <f aca="false">'User 1'!D38</f>
         <v>3</v>
       </c>
       <c r="E38" s="12" t="n">
@@ -6038,7 +5857,6 @@
         <v>11</v>
       </c>
       <c r="D39" s="11" t="n">
-        <f aca="false">'User 1'!D39</f>
         <v>2</v>
       </c>
       <c r="E39" s="12" t="n">
@@ -6070,7 +5888,6 @@
         <v>12</v>
       </c>
       <c r="D40" s="11" t="n">
-        <f aca="false">'User 1'!D40</f>
         <v>2</v>
       </c>
       <c r="E40" s="12" t="n">
@@ -6102,7 +5919,6 @@
         <v>13</v>
       </c>
       <c r="D41" s="11" t="n">
-        <f aca="false">'User 1'!D41</f>
         <v>2</v>
       </c>
       <c r="E41" s="12" t="n">
@@ -6134,7 +5950,6 @@
         <v>14</v>
       </c>
       <c r="D42" s="11" t="n">
-        <f aca="false">'User 1'!D42</f>
         <v>2</v>
       </c>
       <c r="E42" s="12" t="n">
@@ -6166,7 +5981,6 @@
         <v>15</v>
       </c>
       <c r="D43" s="11" t="n">
-        <f aca="false">'User 1'!D43</f>
         <v>2</v>
       </c>
       <c r="E43" s="12" t="n">
@@ -6198,7 +6012,6 @@
         <v>16</v>
       </c>
       <c r="D44" s="11" t="n">
-        <f aca="false">'User 1'!D44</f>
         <v>3</v>
       </c>
       <c r="E44" s="12" t="n">
@@ -6232,7 +6045,6 @@
         <v>17</v>
       </c>
       <c r="D45" s="11" t="n">
-        <f aca="false">'User 1'!D45</f>
         <v>3</v>
       </c>
       <c r="E45" s="12" t="n">
@@ -6266,7 +6078,6 @@
         <v>18</v>
       </c>
       <c r="D46" s="11" t="n">
-        <f aca="false">'User 1'!D46</f>
         <v>3</v>
       </c>
       <c r="E46" s="12" t="n">
@@ -6300,7 +6111,6 @@
         <v>19</v>
       </c>
       <c r="D47" s="11" t="n">
-        <f aca="false">'User 1'!D47</f>
         <v>3</v>
       </c>
       <c r="E47" s="12" t="n">
@@ -6334,7 +6144,6 @@
         <v>20</v>
       </c>
       <c r="D48" s="11" t="n">
-        <f aca="false">'User 1'!D48</f>
         <v>3</v>
       </c>
       <c r="E48" s="12" t="n">
@@ -6368,7 +6177,6 @@
         <v>21</v>
       </c>
       <c r="D49" s="11" t="n">
-        <f aca="false">'User 1'!D49</f>
         <v>3</v>
       </c>
       <c r="E49" s="12" t="n">
@@ -6402,7 +6210,6 @@
         <v>22</v>
       </c>
       <c r="D50" s="11" t="n">
-        <f aca="false">'User 1'!D50</f>
         <v>1</v>
       </c>
       <c r="E50" s="12" t="n">
@@ -6436,7 +6243,6 @@
         <v>23</v>
       </c>
       <c r="D51" s="11" t="n">
-        <f aca="false">'User 1'!D51</f>
         <v>1</v>
       </c>
       <c r="E51" s="12" t="n">
@@ -6483,11 +6289,11 @@
   </sheetPr>
   <dimension ref="B2:P51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -6571,7 +6377,6 @@
         <v>0</v>
       </c>
       <c r="D4" s="11" t="n">
-        <f aca="false">'User 1'!D4</f>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="n">
@@ -6619,7 +6424,6 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="n">
-        <f aca="false">'User 1'!D5</f>
         <v>1</v>
       </c>
       <c r="E5" s="12" t="n">
@@ -6663,7 +6467,6 @@
         <v>2</v>
       </c>
       <c r="D6" s="11" t="n">
-        <f aca="false">'User 1'!D6</f>
         <v>1</v>
       </c>
       <c r="E6" s="12" t="n">
@@ -6707,7 +6510,6 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="n">
-        <f aca="false">'User 1'!D7</f>
         <v>1</v>
       </c>
       <c r="E7" s="12" t="n">
@@ -6751,7 +6553,6 @@
         <v>4</v>
       </c>
       <c r="D8" s="11" t="n">
-        <f aca="false">'User 1'!D8</f>
         <v>1</v>
       </c>
       <c r="E8" s="12" t="n">
@@ -6795,7 +6596,6 @@
         <v>5</v>
       </c>
       <c r="D9" s="11" t="n">
-        <f aca="false">'User 1'!D9</f>
         <v>1</v>
       </c>
       <c r="E9" s="12" t="n">
@@ -6839,7 +6639,6 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="n">
-        <f aca="false">'User 1'!D10</f>
         <v>3</v>
       </c>
       <c r="E10" s="12" t="n">
@@ -6883,7 +6682,6 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="n">
-        <f aca="false">'User 1'!D11</f>
         <v>3</v>
       </c>
       <c r="E11" s="12" t="n">
@@ -6927,7 +6725,6 @@
         <v>8</v>
       </c>
       <c r="D12" s="11" t="n">
-        <f aca="false">'User 1'!D12</f>
         <v>3</v>
       </c>
       <c r="E12" s="12" t="n">
@@ -6971,7 +6768,6 @@
         <v>9</v>
       </c>
       <c r="D13" s="11" t="n">
-        <f aca="false">'User 1'!D13</f>
         <v>3</v>
       </c>
       <c r="E13" s="12" t="n">
@@ -7015,7 +6811,6 @@
         <v>10</v>
       </c>
       <c r="D14" s="11" t="n">
-        <f aca="false">'User 1'!D14</f>
         <v>3</v>
       </c>
       <c r="E14" s="12" t="n">
@@ -7059,7 +6854,6 @@
         <v>11</v>
       </c>
       <c r="D15" s="11" t="n">
-        <f aca="false">'User 1'!D15</f>
         <v>2</v>
       </c>
       <c r="E15" s="12" t="n">
@@ -7103,7 +6897,6 @@
         <v>12</v>
       </c>
       <c r="D16" s="11" t="n">
-        <f aca="false">'User 1'!D16</f>
         <v>2</v>
       </c>
       <c r="E16" s="12" t="n">
@@ -7147,7 +6940,6 @@
         <v>13</v>
       </c>
       <c r="D17" s="11" t="n">
-        <f aca="false">'User 1'!D17</f>
         <v>2</v>
       </c>
       <c r="E17" s="12" t="n">
@@ -7191,7 +6983,6 @@
         <v>14</v>
       </c>
       <c r="D18" s="11" t="n">
-        <f aca="false">'User 1'!D18</f>
         <v>2</v>
       </c>
       <c r="E18" s="12" t="n">
@@ -7235,7 +7026,6 @@
         <v>15</v>
       </c>
       <c r="D19" s="11" t="n">
-        <f aca="false">'User 1'!D19</f>
         <v>2</v>
       </c>
       <c r="E19" s="12" t="n">
@@ -7279,7 +7069,6 @@
         <v>16</v>
       </c>
       <c r="D20" s="11" t="n">
-        <f aca="false">'User 1'!D20</f>
         <v>3</v>
       </c>
       <c r="E20" s="12" t="n">
@@ -7327,7 +7116,6 @@
         <v>17</v>
       </c>
       <c r="D21" s="11" t="n">
-        <f aca="false">'User 1'!D21</f>
         <v>3</v>
       </c>
       <c r="E21" s="12" t="n">
@@ -7371,7 +7159,6 @@
         <v>18</v>
       </c>
       <c r="D22" s="11" t="n">
-        <f aca="false">'User 1'!D22</f>
         <v>3</v>
       </c>
       <c r="E22" s="12" t="n">
@@ -7415,7 +7202,6 @@
         <v>19</v>
       </c>
       <c r="D23" s="11" t="n">
-        <f aca="false">'User 1'!D23</f>
         <v>3</v>
       </c>
       <c r="E23" s="12" t="n">
@@ -7459,7 +7245,6 @@
         <v>20</v>
       </c>
       <c r="D24" s="11" t="n">
-        <f aca="false">'User 1'!D24</f>
         <v>3</v>
       </c>
       <c r="E24" s="12" t="n">
@@ -7503,7 +7288,6 @@
         <v>21</v>
       </c>
       <c r="D25" s="11" t="n">
-        <f aca="false">'User 1'!D25</f>
         <v>3</v>
       </c>
       <c r="E25" s="12" t="n">
@@ -7547,7 +7331,6 @@
         <v>22</v>
       </c>
       <c r="D26" s="11" t="n">
-        <f aca="false">'User 1'!D26</f>
         <v>1</v>
       </c>
       <c r="E26" s="12" t="n">
@@ -7591,7 +7374,6 @@
         <v>23</v>
       </c>
       <c r="D27" s="11" t="n">
-        <f aca="false">'User 1'!D27</f>
         <v>1</v>
       </c>
       <c r="E27" s="12" t="n">
@@ -7635,7 +7417,6 @@
         <v>0</v>
       </c>
       <c r="D28" s="11" t="n">
-        <f aca="false">'User 1'!D28</f>
         <v>1</v>
       </c>
       <c r="E28" s="12" t="n">
@@ -7679,7 +7460,6 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="n">
-        <f aca="false">'User 1'!D29</f>
         <v>1</v>
       </c>
       <c r="E29" s="12" t="n">
@@ -7723,7 +7503,6 @@
         <v>2</v>
       </c>
       <c r="D30" s="11" t="n">
-        <f aca="false">'User 1'!D30</f>
         <v>1</v>
       </c>
       <c r="E30" s="12" t="n">
@@ -7767,7 +7546,6 @@
         <v>3</v>
       </c>
       <c r="D31" s="11" t="n">
-        <f aca="false">'User 1'!D31</f>
         <v>1</v>
       </c>
       <c r="E31" s="12" t="n">
@@ -7813,7 +7591,6 @@
         <v>4</v>
       </c>
       <c r="D32" s="11" t="n">
-        <f aca="false">'User 1'!D32</f>
         <v>1</v>
       </c>
       <c r="E32" s="12" t="n">
@@ -7857,7 +7634,6 @@
         <v>5</v>
       </c>
       <c r="D33" s="11" t="n">
-        <f aca="false">'User 1'!D33</f>
         <v>1</v>
       </c>
       <c r="E33" s="12" t="n">
@@ -7901,7 +7677,6 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="n">
-        <f aca="false">'User 1'!D34</f>
         <v>3</v>
       </c>
       <c r="E34" s="12" t="n">
@@ -7945,7 +7720,6 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="n">
-        <f aca="false">'User 1'!D35</f>
         <v>3</v>
       </c>
       <c r="E35" s="12" t="n">
@@ -7989,7 +7763,6 @@
         <v>8</v>
       </c>
       <c r="D36" s="11" t="n">
-        <f aca="false">'User 1'!D36</f>
         <v>3</v>
       </c>
       <c r="E36" s="12" t="n">
@@ -8033,7 +7806,6 @@
         <v>9</v>
       </c>
       <c r="D37" s="11" t="n">
-        <f aca="false">'User 1'!D37</f>
         <v>3</v>
       </c>
       <c r="E37" s="12" t="n">
@@ -8077,7 +7849,6 @@
         <v>10</v>
       </c>
       <c r="D38" s="11" t="n">
-        <f aca="false">'User 1'!D38</f>
         <v>3</v>
       </c>
       <c r="E38" s="12" t="n">
@@ -8121,7 +7892,6 @@
         <v>11</v>
       </c>
       <c r="D39" s="11" t="n">
-        <f aca="false">'User 1'!D39</f>
         <v>2</v>
       </c>
       <c r="E39" s="12" t="n">
@@ -8165,7 +7935,6 @@
         <v>12</v>
       </c>
       <c r="D40" s="11" t="n">
-        <f aca="false">'User 1'!D40</f>
         <v>2</v>
       </c>
       <c r="E40" s="12" t="n">
@@ -8209,7 +7978,6 @@
         <v>13</v>
       </c>
       <c r="D41" s="11" t="n">
-        <f aca="false">'User 1'!D41</f>
         <v>2</v>
       </c>
       <c r="E41" s="12" t="n">
@@ -8253,7 +8021,6 @@
         <v>14</v>
       </c>
       <c r="D42" s="11" t="n">
-        <f aca="false">'User 1'!D42</f>
         <v>2</v>
       </c>
       <c r="E42" s="12" t="n">
@@ -8297,7 +8064,6 @@
         <v>15</v>
       </c>
       <c r="D43" s="11" t="n">
-        <f aca="false">'User 1'!D43</f>
         <v>2</v>
       </c>
       <c r="E43" s="12" t="n">
@@ -8341,7 +8107,6 @@
         <v>16</v>
       </c>
       <c r="D44" s="11" t="n">
-        <f aca="false">'User 1'!D44</f>
         <v>3</v>
       </c>
       <c r="E44" s="12" t="n">
@@ -8385,7 +8150,6 @@
         <v>17</v>
       </c>
       <c r="D45" s="11" t="n">
-        <f aca="false">'User 1'!D45</f>
         <v>3</v>
       </c>
       <c r="E45" s="12" t="n">
@@ -8429,7 +8193,6 @@
         <v>18</v>
       </c>
       <c r="D46" s="11" t="n">
-        <f aca="false">'User 1'!D46</f>
         <v>3</v>
       </c>
       <c r="E46" s="12" t="n">
@@ -8473,7 +8236,6 @@
         <v>19</v>
       </c>
       <c r="D47" s="11" t="n">
-        <f aca="false">'User 1'!D47</f>
         <v>3</v>
       </c>
       <c r="E47" s="12" t="n">
@@ -8517,7 +8279,6 @@
         <v>20</v>
       </c>
       <c r="D48" s="11" t="n">
-        <f aca="false">'User 1'!D48</f>
         <v>3</v>
       </c>
       <c r="E48" s="12" t="n">
@@ -8561,7 +8322,6 @@
         <v>21</v>
       </c>
       <c r="D49" s="11" t="n">
-        <f aca="false">'User 1'!D49</f>
         <v>3</v>
       </c>
       <c r="E49" s="12" t="n">
@@ -8605,7 +8365,6 @@
         <v>22</v>
       </c>
       <c r="D50" s="11" t="n">
-        <f aca="false">'User 1'!D50</f>
         <v>1</v>
       </c>
       <c r="E50" s="12" t="n">
@@ -8649,7 +8408,6 @@
         <v>23</v>
       </c>
       <c r="D51" s="11" t="n">
-        <f aca="false">'User 1'!D51</f>
         <v>1</v>
       </c>
       <c r="E51" s="12" t="n">
@@ -8707,10 +8465,10 @@
   <dimension ref="A2:H51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L36" activeCellId="0" sqref="L36"/>
+      <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.43"/>
@@ -8774,11 +8532,11 @@
       </c>
       <c r="D4" s="30" t="n">
         <f aca="false">'User 1'!F4-'User 1'!E4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="31" t="n">
         <f aca="false">'User 2'!F4-'User 2'!E4</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="31" t="n">
         <f aca="false">'User 3'!F4-'User 3'!E4</f>
@@ -8790,7 +8548,7 @@
       </c>
       <c r="H4" s="21" t="n">
         <f aca="false">SUM(D4:G4)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8806,11 +8564,11 @@
       </c>
       <c r="D5" s="30" t="n">
         <f aca="false">'User 1'!F5-'User 1'!E5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="31" t="n">
         <f aca="false">'User 2'!F5-'User 2'!E5</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" s="31" t="n">
         <f aca="false">'User 3'!F5-'User 3'!E5</f>
@@ -8822,7 +8580,7 @@
       </c>
       <c r="H5" s="21" t="n">
         <f aca="false">SUM(D5:G5)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8838,11 +8596,11 @@
       </c>
       <c r="D6" s="30" t="n">
         <f aca="false">'User 1'!F6-'User 1'!E6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="31" t="n">
         <f aca="false">'User 2'!F6-'User 2'!E6</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F6" s="31" t="n">
         <f aca="false">'User 3'!F6-'User 3'!E6</f>
@@ -8854,7 +8612,7 @@
       </c>
       <c r="H6" s="21" t="n">
         <f aca="false">SUM(D6:G6)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8870,11 +8628,11 @@
       </c>
       <c r="D7" s="30" t="n">
         <f aca="false">'User 1'!F7-'User 1'!E7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="31" t="n">
         <f aca="false">'User 2'!F7-'User 2'!E7</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7" s="31" t="n">
         <f aca="false">'User 3'!F7-'User 3'!E7</f>
@@ -8886,7 +8644,7 @@
       </c>
       <c r="H7" s="21" t="n">
         <f aca="false">SUM(D7:G7)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8902,11 +8660,11 @@
       </c>
       <c r="D8" s="30" t="n">
         <f aca="false">'User 1'!F8-'User 1'!E8</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="31" t="n">
         <f aca="false">'User 2'!F8-'User 2'!E8</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="31" t="n">
         <f aca="false">'User 3'!F8-'User 3'!E8</f>
@@ -8918,7 +8676,7 @@
       </c>
       <c r="H8" s="21" t="n">
         <f aca="false">SUM(D8:G8)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8934,11 +8692,11 @@
       </c>
       <c r="D9" s="30" t="n">
         <f aca="false">'User 1'!F9-'User 1'!E9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="31" t="n">
         <f aca="false">'User 2'!F9-'User 2'!E9</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" s="31" t="n">
         <f aca="false">'User 3'!F9-'User 3'!E9</f>
@@ -8950,7 +8708,7 @@
       </c>
       <c r="H9" s="21" t="n">
         <f aca="false">SUM(D9:G9)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8966,11 +8724,11 @@
       </c>
       <c r="D10" s="30" t="n">
         <f aca="false">'User 1'!F10-'User 1'!E10</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="31" t="n">
         <f aca="false">'User 2'!F10-'User 2'!E10</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="31" t="n">
         <f aca="false">'User 3'!F10-'User 3'!E10</f>
@@ -8982,7 +8740,7 @@
       </c>
       <c r="H10" s="21" t="n">
         <f aca="false">SUM(D10:G10)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8998,11 +8756,11 @@
       </c>
       <c r="D11" s="30" t="n">
         <f aca="false">'User 1'!F11-'User 1'!E11</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="31" t="n">
         <f aca="false">'User 2'!F11-'User 2'!E11</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F11" s="31" t="n">
         <f aca="false">'User 3'!F11-'User 3'!E11</f>
@@ -9014,7 +8772,7 @@
       </c>
       <c r="H11" s="21" t="n">
         <f aca="false">SUM(D11:G11)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9034,7 +8792,7 @@
       </c>
       <c r="E12" s="31" t="n">
         <f aca="false">'User 2'!F12-'User 2'!E12</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F12" s="31" t="n">
         <f aca="false">'User 3'!F12-'User 3'!E12</f>
@@ -9046,7 +8804,7 @@
       </c>
       <c r="H12" s="21" t="n">
         <f aca="false">SUM(D12:G12)</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9066,7 +8824,7 @@
       </c>
       <c r="E13" s="31" t="n">
         <f aca="false">'User 2'!F13-'User 2'!E13</f>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="31" t="n">
         <f aca="false">'User 3'!F13-'User 3'!E13</f>
@@ -9078,7 +8836,7 @@
       </c>
       <c r="H13" s="21" t="n">
         <f aca="false">SUM(D13:G13)</f>
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9098,7 +8856,7 @@
       </c>
       <c r="E14" s="31" t="n">
         <f aca="false">'User 2'!F14-'User 2'!E14</f>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="31" t="n">
         <f aca="false">'User 3'!F14-'User 3'!E14</f>
@@ -9110,7 +8868,7 @@
       </c>
       <c r="H14" s="21" t="n">
         <f aca="false">SUM(D14:G14)</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9130,7 +8888,7 @@
       </c>
       <c r="E15" s="31" t="n">
         <f aca="false">'User 2'!F15-'User 2'!E15</f>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="31" t="n">
         <f aca="false">'User 3'!F15-'User 3'!E15</f>
@@ -9142,7 +8900,7 @@
       </c>
       <c r="H15" s="21" t="n">
         <f aca="false">SUM(D15:G15)</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9162,7 +8920,7 @@
       </c>
       <c r="E16" s="31" t="n">
         <f aca="false">'User 2'!F16-'User 2'!E16</f>
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="31" t="n">
         <f aca="false">'User 3'!F16-'User 3'!E16</f>
@@ -9174,7 +8932,7 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">SUM(D16:G16)</f>
-        <v>-9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9194,7 +8952,7 @@
       </c>
       <c r="E17" s="31" t="n">
         <f aca="false">'User 2'!F17-'User 2'!E17</f>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="31" t="n">
         <f aca="false">'User 3'!F17-'User 3'!E17</f>
@@ -9206,7 +8964,7 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">SUM(D17:G17)</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9226,7 +8984,7 @@
       </c>
       <c r="E18" s="31" t="n">
         <f aca="false">'User 2'!F18-'User 2'!E18</f>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="31" t="n">
         <f aca="false">'User 3'!F18-'User 3'!E18</f>
@@ -9238,7 +8996,7 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">SUM(D18:G18)</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9258,7 +9016,7 @@
       </c>
       <c r="E19" s="31" t="n">
         <f aca="false">'User 2'!F19-'User 2'!E19</f>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="31" t="n">
         <f aca="false">'User 3'!F19-'User 3'!E19</f>
@@ -9270,7 +9028,7 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">SUM(D19:G19)</f>
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9290,7 +9048,7 @@
       </c>
       <c r="E20" s="31" t="n">
         <f aca="false">'User 2'!F20-'User 2'!E20</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20" s="31" t="n">
         <f aca="false">'User 3'!F20-'User 3'!E20</f>
@@ -9302,7 +9060,7 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">SUM(D20:G20)</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9322,7 +9080,7 @@
       </c>
       <c r="E21" s="31" t="n">
         <f aca="false">'User 2'!F21-'User 2'!E21</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F21" s="31" t="n">
         <f aca="false">'User 3'!F21-'User 3'!E21</f>
@@ -9334,7 +9092,7 @@
       </c>
       <c r="H21" s="21" t="n">
         <f aca="false">SUM(D21:G21)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9350,11 +9108,11 @@
       </c>
       <c r="D22" s="30" t="n">
         <f aca="false">'User 1'!F22-'User 1'!E22</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="31" t="n">
         <f aca="false">'User 2'!F22-'User 2'!E22</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F22" s="31" t="n">
         <f aca="false">'User 3'!F22-'User 3'!E22</f>
@@ -9366,7 +9124,7 @@
       </c>
       <c r="H22" s="21" t="n">
         <f aca="false">SUM(D22:G22)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9382,11 +9140,11 @@
       </c>
       <c r="D23" s="30" t="n">
         <f aca="false">'User 1'!F23-'User 1'!E23</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="31" t="n">
         <f aca="false">'User 2'!F23-'User 2'!E23</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F23" s="31" t="n">
         <f aca="false">'User 3'!F23-'User 3'!E23</f>
@@ -9398,7 +9156,7 @@
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">SUM(D23:G23)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9414,11 +9172,11 @@
       </c>
       <c r="D24" s="30" t="n">
         <f aca="false">'User 1'!F24-'User 1'!E24</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="31" t="n">
         <f aca="false">'User 2'!F24-'User 2'!E24</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="31" t="n">
         <f aca="false">'User 3'!F24-'User 3'!E24</f>
@@ -9430,7 +9188,7 @@
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">SUM(D24:G24)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9446,11 +9204,11 @@
       </c>
       <c r="D25" s="30" t="n">
         <f aca="false">'User 1'!F25-'User 1'!E25</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25" s="31" t="n">
         <f aca="false">'User 2'!F25-'User 2'!E25</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25" s="31" t="n">
         <f aca="false">'User 3'!F25-'User 3'!E25</f>
@@ -9462,7 +9220,7 @@
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">SUM(D25:G25)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9478,11 +9236,11 @@
       </c>
       <c r="D26" s="30" t="n">
         <f aca="false">'User 1'!F26-'User 1'!E26</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="31" t="n">
         <f aca="false">'User 2'!F26-'User 2'!E26</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F26" s="31" t="n">
         <f aca="false">'User 3'!F26-'User 3'!E26</f>
@@ -9494,7 +9252,7 @@
       </c>
       <c r="H26" s="21" t="n">
         <f aca="false">SUM(D26:G26)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9510,11 +9268,11 @@
       </c>
       <c r="D27" s="30" t="n">
         <f aca="false">'User 1'!F27-'User 1'!E27</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="31" t="n">
         <f aca="false">'User 2'!F27-'User 2'!E27</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" s="31" t="n">
         <f aca="false">'User 3'!F27-'User 3'!E27</f>
@@ -9526,7 +9284,7 @@
       </c>
       <c r="H27" s="21" t="n">
         <f aca="false">SUM(D27:G27)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9542,11 +9300,11 @@
       </c>
       <c r="D28" s="30" t="n">
         <f aca="false">'User 1'!F28-'User 1'!E28</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="31" t="n">
         <f aca="false">'User 2'!F28-'User 2'!E28</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F28" s="31" t="n">
         <f aca="false">'User 3'!F28-'User 3'!E28</f>
@@ -9558,7 +9316,7 @@
       </c>
       <c r="H28" s="21" t="n">
         <f aca="false">SUM(D28:G28)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9574,11 +9332,11 @@
       </c>
       <c r="D29" s="30" t="n">
         <f aca="false">'User 1'!F29-'User 1'!E29</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="31" t="n">
         <f aca="false">'User 2'!F29-'User 2'!E29</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" s="31" t="n">
         <f aca="false">'User 3'!F29-'User 3'!E29</f>
@@ -9590,7 +9348,7 @@
       </c>
       <c r="H29" s="21" t="n">
         <f aca="false">SUM(D29:G29)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9606,11 +9364,11 @@
       </c>
       <c r="D30" s="30" t="n">
         <f aca="false">'User 1'!F30-'User 1'!E30</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="31" t="n">
         <f aca="false">'User 2'!F30-'User 2'!E30</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F30" s="31" t="n">
         <f aca="false">'User 3'!F30-'User 3'!E30</f>
@@ -9622,7 +9380,7 @@
       </c>
       <c r="H30" s="21" t="n">
         <f aca="false">SUM(D30:G30)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9638,11 +9396,11 @@
       </c>
       <c r="D31" s="30" t="n">
         <f aca="false">'User 1'!F31-'User 1'!E31</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="31" t="n">
         <f aca="false">'User 2'!F31-'User 2'!E31</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F31" s="31" t="n">
         <f aca="false">'User 3'!F31-'User 3'!E31</f>
@@ -9654,7 +9412,7 @@
       </c>
       <c r="H31" s="21" t="n">
         <f aca="false">SUM(D31:G31)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9670,11 +9428,11 @@
       </c>
       <c r="D32" s="30" t="n">
         <f aca="false">'User 1'!F32-'User 1'!E32</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="31" t="n">
         <f aca="false">'User 2'!F32-'User 2'!E32</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32" s="31" t="n">
         <f aca="false">'User 3'!F32-'User 3'!E32</f>
@@ -9686,7 +9444,7 @@
       </c>
       <c r="H32" s="21" t="n">
         <f aca="false">SUM(D32:G32)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9702,11 +9460,11 @@
       </c>
       <c r="D33" s="30" t="n">
         <f aca="false">'User 1'!F33-'User 1'!E33</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="31" t="n">
         <f aca="false">'User 2'!F33-'User 2'!E33</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F33" s="31" t="n">
         <f aca="false">'User 3'!F33-'User 3'!E33</f>
@@ -9718,7 +9476,7 @@
       </c>
       <c r="H33" s="21" t="n">
         <f aca="false">SUM(D33:G33)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9734,11 +9492,11 @@
       </c>
       <c r="D34" s="30" t="n">
         <f aca="false">'User 1'!F34-'User 1'!E34</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="31" t="n">
         <f aca="false">'User 2'!F34-'User 2'!E34</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34" s="31" t="n">
         <f aca="false">'User 3'!F34-'User 3'!E34</f>
@@ -9750,7 +9508,7 @@
       </c>
       <c r="H34" s="21" t="n">
         <f aca="false">SUM(D34:G34)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9766,11 +9524,11 @@
       </c>
       <c r="D35" s="30" t="n">
         <f aca="false">'User 1'!F35-'User 1'!E35</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="31" t="n">
         <f aca="false">'User 2'!F35-'User 2'!E35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" s="31" t="n">
         <f aca="false">'User 3'!F35-'User 3'!E35</f>
@@ -9782,7 +9540,7 @@
       </c>
       <c r="H35" s="21" t="n">
         <f aca="false">SUM(D35:G35)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9802,7 +9560,7 @@
       </c>
       <c r="E36" s="31" t="n">
         <f aca="false">'User 2'!F36-'User 2'!E36</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F36" s="31" t="n">
         <f aca="false">'User 3'!F36-'User 3'!E36</f>
@@ -9814,7 +9572,7 @@
       </c>
       <c r="H36" s="21" t="n">
         <f aca="false">SUM(D36:G36)</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9834,7 +9592,7 @@
       </c>
       <c r="E37" s="31" t="n">
         <f aca="false">'User 2'!F37-'User 2'!E37</f>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="F37" s="31" t="n">
         <f aca="false">'User 3'!F37-'User 3'!E37</f>
@@ -9846,7 +9604,7 @@
       </c>
       <c r="H37" s="21" t="n">
         <f aca="false">SUM(D37:G37)</f>
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9866,7 +9624,7 @@
       </c>
       <c r="E38" s="31" t="n">
         <f aca="false">'User 2'!F38-'User 2'!E38</f>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F38" s="31" t="n">
         <f aca="false">'User 3'!F38-'User 3'!E38</f>
@@ -9878,7 +9636,7 @@
       </c>
       <c r="H38" s="21" t="n">
         <f aca="false">SUM(D38:G38)</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9898,7 +9656,7 @@
       </c>
       <c r="E39" s="31" t="n">
         <f aca="false">'User 2'!F39-'User 2'!E39</f>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F39" s="31" t="n">
         <f aca="false">'User 3'!F39-'User 3'!E39</f>
@@ -9910,7 +9668,7 @@
       </c>
       <c r="H39" s="21" t="n">
         <f aca="false">SUM(D39:G39)</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9930,7 +9688,7 @@
       </c>
       <c r="E40" s="31" t="n">
         <f aca="false">'User 2'!F40-'User 2'!E40</f>
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="F40" s="31" t="n">
         <f aca="false">'User 3'!F40-'User 3'!E40</f>
@@ -9942,7 +9700,7 @@
       </c>
       <c r="H40" s="21" t="n">
         <f aca="false">SUM(D40:G40)</f>
-        <v>-9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9962,7 +9720,7 @@
       </c>
       <c r="E41" s="31" t="n">
         <f aca="false">'User 2'!F41-'User 2'!E41</f>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="F41" s="31" t="n">
         <f aca="false">'User 3'!F41-'User 3'!E41</f>
@@ -9974,7 +9732,7 @@
       </c>
       <c r="H41" s="21" t="n">
         <f aca="false">SUM(D41:G41)</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9994,7 +9752,7 @@
       </c>
       <c r="E42" s="31" t="n">
         <f aca="false">'User 2'!F42-'User 2'!E42</f>
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="F42" s="31" t="n">
         <f aca="false">'User 3'!F42-'User 3'!E42</f>
@@ -10006,7 +9764,7 @@
       </c>
       <c r="H42" s="21" t="n">
         <f aca="false">SUM(D42:G42)</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10026,7 +9784,7 @@
       </c>
       <c r="E43" s="31" t="n">
         <f aca="false">'User 2'!F43-'User 2'!E43</f>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="F43" s="31" t="n">
         <f aca="false">'User 3'!F43-'User 3'!E43</f>
@@ -10038,7 +9796,7 @@
       </c>
       <c r="H43" s="21" t="n">
         <f aca="false">SUM(D43:G43)</f>
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10058,7 +9816,7 @@
       </c>
       <c r="E44" s="31" t="n">
         <f aca="false">'User 2'!F44-'User 2'!E44</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F44" s="31" t="n">
         <f aca="false">'User 3'!F44-'User 3'!E44</f>
@@ -10070,7 +9828,7 @@
       </c>
       <c r="H44" s="21" t="n">
         <f aca="false">SUM(D44:G44)</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10090,7 +9848,7 @@
       </c>
       <c r="E45" s="31" t="n">
         <f aca="false">'User 2'!F45-'User 2'!E45</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F45" s="31" t="n">
         <f aca="false">'User 3'!F45-'User 3'!E45</f>
@@ -10102,7 +9860,7 @@
       </c>
       <c r="H45" s="21" t="n">
         <f aca="false">SUM(D45:G45)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10118,11 +9876,11 @@
       </c>
       <c r="D46" s="30" t="n">
         <f aca="false">'User 1'!F46-'User 1'!E46</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" s="31" t="n">
         <f aca="false">'User 2'!F46-'User 2'!E46</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" s="31" t="n">
         <f aca="false">'User 3'!F46-'User 3'!E46</f>
@@ -10134,7 +9892,7 @@
       </c>
       <c r="H46" s="21" t="n">
         <f aca="false">SUM(D46:G46)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10150,11 +9908,11 @@
       </c>
       <c r="D47" s="30" t="n">
         <f aca="false">'User 1'!F47-'User 1'!E47</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E47" s="31" t="n">
         <f aca="false">'User 2'!F47-'User 2'!E47</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F47" s="31" t="n">
         <f aca="false">'User 3'!F47-'User 3'!E47</f>
@@ -10166,7 +9924,7 @@
       </c>
       <c r="H47" s="21" t="n">
         <f aca="false">SUM(D47:G47)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10182,11 +9940,11 @@
       </c>
       <c r="D48" s="30" t="n">
         <f aca="false">'User 1'!F48-'User 1'!E48</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" s="31" t="n">
         <f aca="false">'User 2'!F48-'User 2'!E48</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48" s="31" t="n">
         <f aca="false">'User 3'!F48-'User 3'!E48</f>
@@ -10198,7 +9956,7 @@
       </c>
       <c r="H48" s="21" t="n">
         <f aca="false">SUM(D48:G48)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10214,11 +9972,11 @@
       </c>
       <c r="D49" s="30" t="n">
         <f aca="false">'User 1'!F49-'User 1'!E49</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" s="31" t="n">
         <f aca="false">'User 2'!F49-'User 2'!E49</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F49" s="31" t="n">
         <f aca="false">'User 3'!F49-'User 3'!E49</f>
@@ -10230,7 +9988,7 @@
       </c>
       <c r="H49" s="21" t="n">
         <f aca="false">SUM(D49:G49)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10246,11 +10004,11 @@
       </c>
       <c r="D50" s="30" t="n">
         <f aca="false">'User 1'!F50-'User 1'!E50</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="31" t="n">
         <f aca="false">'User 2'!F50-'User 2'!E50</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F50" s="31" t="n">
         <f aca="false">'User 3'!F50-'User 3'!E50</f>
@@ -10262,7 +10020,7 @@
       </c>
       <c r="H50" s="21" t="n">
         <f aca="false">SUM(D50:G50)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10278,11 +10036,11 @@
       </c>
       <c r="D51" s="30" t="n">
         <f aca="false">'User 1'!F51-'User 1'!E51</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="31" t="n">
         <f aca="false">'User 2'!F51-'User 2'!E51</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F51" s="31" t="n">
         <f aca="false">'User 3'!F51-'User 3'!E51</f>
@@ -10294,7 +10052,7 @@
       </c>
       <c r="H51" s="21" t="n">
         <f aca="false">SUM(D51:G51)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -533,7 +533,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -545,10 +545,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.000254524167069663"/>
-          <c:y val="0.0296082145349417"/>
-          <c:w val="0.956781796431571"/>
-          <c:h val="0.926727145847872"/>
+          <c:x val="0.000254530645489717"/>
+          <c:y val="0.0296111665004985"/>
+          <c:w val="0.956755243331297"/>
+          <c:h val="0.926620139581256"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -696,52 +696,52 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>9</c:v>
@@ -755,11 +755,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="64651742"/>
-        <c:axId val="82389876"/>
+        <c:axId val="36488739"/>
+        <c:axId val="61812909"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64651742"/>
+        <c:axId val="36488739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +791,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82389876"/>
+        <c:crossAx val="61812909"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82389876"/>
+        <c:axId val="61812909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64651742"/>
+        <c:crossAx val="36488739"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,9 +877,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -888,7 +888,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10829520" y="689400"/>
-        <a:ext cx="14143680" cy="3610800"/>
+        <a:ext cx="14143320" cy="3610440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -908,11 +908,11 @@
   </sheetPr>
   <dimension ref="B2:P51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" s="13" t="n">
         <v>70</v>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="13" t="n">
         <v>70</v>
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>70</v>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="13" t="n">
         <v>70</v>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>70</v>
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="13" t="n">
         <v>70</v>
@@ -1512,7 +1512,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="13" t="n">
         <v>70</v>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>70</v>
@@ -1594,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="13" t="n">
         <v>70</v>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13" t="n">
         <v>70</v>
@@ -1680,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="13" t="n">
         <v>70</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="n">
         <v>70</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" s="13" t="n">
         <v>70</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="n">
         <v>70</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="13" t="n">
         <v>70</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13" t="n">
         <v>70</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="13" t="n">
         <v>70</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="13" t="n">
         <v>70</v>
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="13" t="n">
         <v>70</v>
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="13" t="n">
         <v>70</v>
@@ -2448,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="13" t="n">
         <v>70</v>
@@ -2489,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="13" t="n">
         <v>70</v>
@@ -2530,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="13" t="n">
         <v>70</v>
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="13" t="n">
         <v>70</v>
@@ -2612,7 +2612,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="13" t="n">
         <v>70</v>
@@ -2653,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="13" t="n">
         <v>70</v>
@@ -2694,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="13" t="n">
         <v>70</v>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="13" t="n">
         <v>70</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="13" t="n">
         <v>70</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47" s="13" t="n">
         <v>70</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" s="13" t="n">
         <v>70</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49" s="13" t="n">
         <v>70</v>
@@ -3047,11 +3047,11 @@
   </sheetPr>
   <dimension ref="B2:P51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -4640,7 +4640,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -6293,7 +6293,7 @@
       <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -8468,7 +8468,7 @@
       <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.43"/>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D10" s="30" t="n">
         <f aca="false">'User 1'!F10-'User 1'!E10</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="31" t="n">
         <f aca="false">'User 2'!F10-'User 2'!E10</f>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="H10" s="21" t="n">
         <f aca="false">SUM(D10:G10)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="D11" s="30" t="n">
         <f aca="false">'User 1'!F11-'User 1'!E11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="31" t="n">
         <f aca="false">'User 2'!F11-'User 2'!E11</f>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H11" s="21" t="n">
         <f aca="false">SUM(D11:G11)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="D12" s="30" t="n">
         <f aca="false">'User 1'!F12-'User 1'!E12</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="31" t="n">
         <f aca="false">'User 2'!F12-'User 2'!E12</f>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="H12" s="21" t="n">
         <f aca="false">SUM(D12:G12)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="D13" s="30" t="n">
         <f aca="false">'User 1'!F13-'User 1'!E13</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="31" t="n">
         <f aca="false">'User 2'!F13-'User 2'!E13</f>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="H13" s="21" t="n">
         <f aca="false">SUM(D13:G13)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="D14" s="30" t="n">
         <f aca="false">'User 1'!F14-'User 1'!E14</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E14" s="31" t="n">
         <f aca="false">'User 2'!F14-'User 2'!E14</f>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="H14" s="21" t="n">
         <f aca="false">SUM(D14:G14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="D15" s="30" t="n">
         <f aca="false">'User 1'!F15-'User 1'!E15</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E15" s="31" t="n">
         <f aca="false">'User 2'!F15-'User 2'!E15</f>
@@ -8900,7 +8900,7 @@
       </c>
       <c r="H15" s="21" t="n">
         <f aca="false">SUM(D15:G15)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="D16" s="30" t="n">
         <f aca="false">'User 1'!F16-'User 1'!E16</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E16" s="31" t="n">
         <f aca="false">'User 2'!F16-'User 2'!E16</f>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="H16" s="21" t="n">
         <f aca="false">SUM(D16:G16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="D17" s="30" t="n">
         <f aca="false">'User 1'!F17-'User 1'!E17</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E17" s="31" t="n">
         <f aca="false">'User 2'!F17-'User 2'!E17</f>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="H17" s="21" t="n">
         <f aca="false">SUM(D17:G17)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="D18" s="30" t="n">
         <f aca="false">'User 1'!F18-'User 1'!E18</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E18" s="31" t="n">
         <f aca="false">'User 2'!F18-'User 2'!E18</f>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H18" s="21" t="n">
         <f aca="false">SUM(D18:G18)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="D19" s="30" t="n">
         <f aca="false">'User 1'!F19-'User 1'!E19</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="31" t="n">
         <f aca="false">'User 2'!F19-'User 2'!E19</f>
@@ -9028,7 +9028,7 @@
       </c>
       <c r="H19" s="21" t="n">
         <f aca="false">SUM(D19:G19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="D20" s="30" t="n">
         <f aca="false">'User 1'!F20-'User 1'!E20</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="31" t="n">
         <f aca="false">'User 2'!F20-'User 2'!E20</f>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H20" s="21" t="n">
         <f aca="false">SUM(D20:G20)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="D21" s="30" t="n">
         <f aca="false">'User 1'!F21-'User 1'!E21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="31" t="n">
         <f aca="false">'User 2'!F21-'User 2'!E21</f>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="H21" s="21" t="n">
         <f aca="false">SUM(D21:G21)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="D22" s="30" t="n">
         <f aca="false">'User 1'!F22-'User 1'!E22</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="31" t="n">
         <f aca="false">'User 2'!F22-'User 2'!E22</f>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="H22" s="21" t="n">
         <f aca="false">SUM(D22:G22)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="D23" s="30" t="n">
         <f aca="false">'User 1'!F23-'User 1'!E23</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="31" t="n">
         <f aca="false">'User 2'!F23-'User 2'!E23</f>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">SUM(D23:G23)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9172,7 +9172,7 @@
       </c>
       <c r="D24" s="30" t="n">
         <f aca="false">'User 1'!F24-'User 1'!E24</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="31" t="n">
         <f aca="false">'User 2'!F24-'User 2'!E24</f>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="H24" s="21" t="n">
         <f aca="false">SUM(D24:G24)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="D25" s="30" t="n">
         <f aca="false">'User 1'!F25-'User 1'!E25</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="31" t="n">
         <f aca="false">'User 2'!F25-'User 2'!E25</f>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="H25" s="21" t="n">
         <f aca="false">SUM(D25:G25)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="D34" s="30" t="n">
         <f aca="false">'User 1'!F34-'User 1'!E34</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="31" t="n">
         <f aca="false">'User 2'!F34-'User 2'!E34</f>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="H34" s="21" t="n">
         <f aca="false">SUM(D34:G34)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9524,7 +9524,7 @@
       </c>
       <c r="D35" s="30" t="n">
         <f aca="false">'User 1'!F35-'User 1'!E35</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="31" t="n">
         <f aca="false">'User 2'!F35-'User 2'!E35</f>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="H35" s="21" t="n">
         <f aca="false">SUM(D35:G35)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="D36" s="30" t="n">
         <f aca="false">'User 1'!F36-'User 1'!E36</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="31" t="n">
         <f aca="false">'User 2'!F36-'User 2'!E36</f>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="H36" s="21" t="n">
         <f aca="false">SUM(D36:G36)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="D37" s="30" t="n">
         <f aca="false">'User 1'!F37-'User 1'!E37</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="31" t="n">
         <f aca="false">'User 2'!F37-'User 2'!E37</f>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="H37" s="21" t="n">
         <f aca="false">SUM(D37:G37)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="D38" s="30" t="n">
         <f aca="false">'User 1'!F38-'User 1'!E38</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E38" s="31" t="n">
         <f aca="false">'User 2'!F38-'User 2'!E38</f>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H38" s="21" t="n">
         <f aca="false">SUM(D38:G38)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="D39" s="30" t="n">
         <f aca="false">'User 1'!F39-'User 1'!E39</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E39" s="31" t="n">
         <f aca="false">'User 2'!F39-'User 2'!E39</f>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="H39" s="21" t="n">
         <f aca="false">SUM(D39:G39)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="D40" s="30" t="n">
         <f aca="false">'User 1'!F40-'User 1'!E40</f>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E40" s="31" t="n">
         <f aca="false">'User 2'!F40-'User 2'!E40</f>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="H40" s="21" t="n">
         <f aca="false">SUM(D40:G40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="D41" s="30" t="n">
         <f aca="false">'User 1'!F41-'User 1'!E41</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E41" s="31" t="n">
         <f aca="false">'User 2'!F41-'User 2'!E41</f>
@@ -9732,7 +9732,7 @@
       </c>
       <c r="H41" s="21" t="n">
         <f aca="false">SUM(D41:G41)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="D42" s="30" t="n">
         <f aca="false">'User 1'!F42-'User 1'!E42</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E42" s="31" t="n">
         <f aca="false">'User 2'!F42-'User 2'!E42</f>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="H42" s="21" t="n">
         <f aca="false">SUM(D42:G42)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="D43" s="30" t="n">
         <f aca="false">'User 1'!F43-'User 1'!E43</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="31" t="n">
         <f aca="false">'User 2'!F43-'User 2'!E43</f>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="H43" s="21" t="n">
         <f aca="false">SUM(D43:G43)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="D44" s="30" t="n">
         <f aca="false">'User 1'!F44-'User 1'!E44</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="31" t="n">
         <f aca="false">'User 2'!F44-'User 2'!E44</f>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="H44" s="21" t="n">
         <f aca="false">SUM(D44:G44)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="D45" s="30" t="n">
         <f aca="false">'User 1'!F45-'User 1'!E45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="31" t="n">
         <f aca="false">'User 2'!F45-'User 2'!E45</f>
@@ -9860,7 +9860,7 @@
       </c>
       <c r="H45" s="21" t="n">
         <f aca="false">SUM(D45:G45)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="D46" s="30" t="n">
         <f aca="false">'User 1'!F46-'User 1'!E46</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="31" t="n">
         <f aca="false">'User 2'!F46-'User 2'!E46</f>
@@ -9892,7 +9892,7 @@
       </c>
       <c r="H46" s="21" t="n">
         <f aca="false">SUM(D46:G46)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="D47" s="30" t="n">
         <f aca="false">'User 1'!F47-'User 1'!E47</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="31" t="n">
         <f aca="false">'User 2'!F47-'User 2'!E47</f>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H47" s="21" t="n">
         <f aca="false">SUM(D47:G47)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9940,7 +9940,7 @@
       </c>
       <c r="D48" s="30" t="n">
         <f aca="false">'User 1'!F48-'User 1'!E48</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E48" s="31" t="n">
         <f aca="false">'User 2'!F48-'User 2'!E48</f>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="H48" s="21" t="n">
         <f aca="false">SUM(D48:G48)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="D49" s="30" t="n">
         <f aca="false">'User 1'!F49-'User 1'!E49</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="31" t="n">
         <f aca="false">'User 2'!F49-'User 2'!E49</f>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="H49" s="21" t="n">
         <f aca="false">SUM(D49:G49)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -558,7 +558,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -570,10 +570,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.00025455656246818"/>
-          <c:y val="0.0296229802513465"/>
-          <c:w val="0.956649017411669"/>
-          <c:h val="0.926191901057251"/>
+          <c:x val="0.000254569522936714"/>
+          <c:y val="0.0296288906624102"/>
+          <c:w val="0.95659589633929"/>
+          <c:h val="0.925977653631285"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -708,11 +708,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="65318448"/>
-        <c:axId val="91397967"/>
+        <c:axId val="96335659"/>
+        <c:axId val="21028551"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65318448"/>
+        <c:axId val="96335659"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,7 +744,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91397967"/>
+        <c:crossAx val="21028551"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -752,7 +752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91397967"/>
+        <c:axId val="21028551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +791,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65318448"/>
+        <c:crossAx val="96335659"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,9 +830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -841,7 +841,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10829520" y="689400"/>
-        <a:ext cx="14141880" cy="3609000"/>
+        <a:ext cx="14141160" cy="3608280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -861,11 +861,11 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.53"/>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="12" t="n">
         <v>70</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="12" t="n">
         <v>70</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="12" t="n">
         <v>70</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="12" t="n">
         <v>70</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="12" t="n">
         <v>70</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12" t="n">
         <v>70</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12" t="n">
         <v>70</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12" t="n">
         <v>70</v>
@@ -1220,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12" t="n">
         <v>70</v>
@@ -1252,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12" t="n">
         <v>70</v>
@@ -1284,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="12" t="n">
         <v>70</v>
@@ -1316,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="12" t="n">
         <v>70</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="12" t="n">
         <v>70</v>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12" t="n">
         <v>70</v>
@@ -1412,7 +1412,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="12" t="n">
         <v>70</v>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="12" t="n">
         <v>70</v>
@@ -1480,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="12" t="n">
         <v>70</v>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="12" t="n">
         <v>70</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="12" t="n">
         <v>70</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="12" t="n">
         <v>70</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="12" t="n">
         <v>70</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="12" t="n">
         <v>70</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="12" t="n">
         <v>70</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="12" t="n">
         <v>70</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="n">
-        <v>44228</v>
+        <v>44229.0000000008</v>
       </c>
       <c r="C28" s="10" t="n">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="12" t="n">
         <v>70</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="n">
-        <v>44228.0416666667</v>
+        <v>44229.0416666675</v>
       </c>
       <c r="C29" s="10" t="n">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="12" t="n">
         <v>70</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="n">
-        <v>44228.0833333334</v>
+        <v>44229.0833333342</v>
       </c>
       <c r="C30" s="10" t="n">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="12" t="n">
         <v>70</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="31" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="n">
-        <v>44228.1250000001</v>
+        <v>44229.1250000009</v>
       </c>
       <c r="C31" s="10" t="n">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="12" t="n">
         <v>70</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="32" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="n">
-        <v>44228.1666666668</v>
+        <v>44229.1666666676</v>
       </c>
       <c r="C32" s="10" t="n">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="12" t="n">
         <v>70</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="33" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="n">
-        <v>44228.2083333335</v>
+        <v>44229.2083333343</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="12" t="n">
         <v>70</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="34" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="n">
-        <v>44228.2500000002</v>
+        <v>44229.250000001</v>
       </c>
       <c r="C34" s="10" t="n">
         <v>3</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="12" t="n">
         <v>70</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="35" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="n">
-        <v>44228.2916666669</v>
+        <v>44229.2916666677</v>
       </c>
       <c r="C35" s="10" t="n">
         <v>3</v>
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="12" t="n">
         <v>70</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="36" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="n">
-        <v>44228.3333333336</v>
+        <v>44229.3333333344</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>3</v>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="12" t="n">
         <v>70</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="n">
-        <v>44228.3750000003</v>
+        <v>44229.3750000011</v>
       </c>
       <c r="C37" s="10" t="n">
         <v>3</v>
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="12" t="n">
         <v>70</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="n">
-        <v>44228.416666667</v>
+        <v>44229.4166666678</v>
       </c>
       <c r="C38" s="10" t="n">
         <v>3</v>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="12" t="n">
         <v>70</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="39" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="n">
-        <v>44228.4583333337</v>
+        <v>44229.4583333345</v>
       </c>
       <c r="C39" s="10" t="n">
         <v>3</v>
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="12" t="n">
         <v>70</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="40" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="n">
-        <v>44228.5000000004</v>
+        <v>44229.5000000012</v>
       </c>
       <c r="C40" s="10" t="n">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="12" t="n">
         <v>70</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="n">
-        <v>44228.5416666671</v>
+        <v>44229.5416666679</v>
       </c>
       <c r="C41" s="10" t="n">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
       <c r="E41" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="12" t="n">
         <v>70</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="n">
-        <v>44228.5833333338</v>
+        <v>44229.5833333346</v>
       </c>
       <c r="C42" s="10" t="n">
         <v>2</v>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="12" t="n">
         <v>70</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="43" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="n">
-        <v>44228.6250000005</v>
+        <v>44229.6250000013</v>
       </c>
       <c r="C43" s="10" t="n">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="12" t="n">
         <v>70</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="44" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="n">
-        <v>44228.6666666672</v>
+        <v>44229.666666668</v>
       </c>
       <c r="C44" s="10" t="n">
         <v>3</v>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="12" t="n">
         <v>70</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="45" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="n">
-        <v>44228.7083333339</v>
+        <v>44229.7083333347</v>
       </c>
       <c r="C45" s="10" t="n">
         <v>3</v>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="12" t="n">
         <v>70</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="46" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="n">
-        <v>44228.7500000006</v>
+        <v>44229.7500000014</v>
       </c>
       <c r="C46" s="10" t="n">
         <v>3</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="12" t="n">
         <v>70</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="n">
-        <v>44228.7916666673</v>
+        <v>44229.7916666681</v>
       </c>
       <c r="C47" s="10" t="n">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="12" t="n">
         <v>70</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="n">
-        <v>44228.833333334</v>
+        <v>44229.8333333348</v>
       </c>
       <c r="C48" s="10" t="n">
         <v>3</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="12" t="n">
         <v>70</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="9" t="n">
-        <v>44228.8750000007</v>
+        <v>44229.8750000015</v>
       </c>
       <c r="C49" s="10" t="n">
         <v>3</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="12" t="n">
         <v>70</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="9" t="n">
-        <v>44228.9166666674</v>
+        <v>44229.9166666682</v>
       </c>
       <c r="C50" s="10" t="n">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="12" t="n">
         <v>70</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="9" t="n">
-        <v>44228.9583333341</v>
+        <v>44229.9583333349</v>
       </c>
       <c r="C51" s="10" t="n">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="12" t="n">
         <v>70</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="9" t="n">
-        <v>44228</v>
+        <v>44230.0000000016</v>
       </c>
       <c r="C52" s="10" t="n">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="12" t="n">
         <v>70</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="9" t="n">
-        <v>44228.0416666667</v>
+        <v>44230.0416666684</v>
       </c>
       <c r="C53" s="10" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="12" t="n">
         <v>70</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="9" t="n">
-        <v>44228.0833333334</v>
+        <v>44230.0833333351</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>1</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="12" t="n">
         <v>70</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="9" t="n">
-        <v>44228.1250000001</v>
+        <v>44230.1250000018</v>
       </c>
       <c r="C55" s="10" t="n">
         <v>1</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="12" t="n">
         <v>70</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="9" t="n">
-        <v>44228.1666666668</v>
+        <v>44230.1666666685</v>
       </c>
       <c r="C56" s="10" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="12" t="n">
         <v>70</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="57" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="9" t="n">
-        <v>44228.2083333335</v>
+        <v>44230.2083333352</v>
       </c>
       <c r="C57" s="10" t="n">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="12" t="n">
         <v>70</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="58" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="9" t="n">
-        <v>44228.2500000002</v>
+        <v>44230.2500000019</v>
       </c>
       <c r="C58" s="10" t="n">
         <v>3</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="12" t="n">
         <v>70</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="59" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="9" t="n">
-        <v>44228.2916666669</v>
+        <v>44230.2916666686</v>
       </c>
       <c r="C59" s="10" t="n">
         <v>3</v>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="12" t="n">
         <v>70</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="60" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="9" t="n">
-        <v>44228.3333333336</v>
+        <v>44230.3333333353</v>
       </c>
       <c r="C60" s="10" t="n">
         <v>3</v>
@@ -2824,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="12" t="n">
         <v>70</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="61" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="9" t="n">
-        <v>44228.3750000003</v>
+        <v>44230.375000002</v>
       </c>
       <c r="C61" s="10" t="n">
         <v>3</v>
@@ -2856,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="12" t="n">
         <v>70</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="62" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="9" t="n">
-        <v>44228.416666667</v>
+        <v>44230.4166666687</v>
       </c>
       <c r="C62" s="10" t="n">
         <v>3</v>
@@ -2888,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="12" t="n">
         <v>70</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="63" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="9" t="n">
-        <v>44228.4583333337</v>
+        <v>44230.4583333354</v>
       </c>
       <c r="C63" s="10" t="n">
         <v>3</v>
@@ -2920,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="E63" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="12" t="n">
         <v>70</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="64" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="9" t="n">
-        <v>44228.5000000004</v>
+        <v>44230.5000000021</v>
       </c>
       <c r="C64" s="10" t="n">
         <v>2</v>
@@ -2952,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="12" t="n">
         <v>70</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="65" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="9" t="n">
-        <v>44228.5416666671</v>
+        <v>44230.5416666688</v>
       </c>
       <c r="C65" s="10" t="n">
         <v>2</v>
@@ -2984,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="12" t="n">
         <v>70</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="66" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="9" t="n">
-        <v>44228.5833333338</v>
+        <v>44230.5833333355</v>
       </c>
       <c r="C66" s="10" t="n">
         <v>2</v>
@@ -3016,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="E66" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="12" t="n">
         <v>70</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="67" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="9" t="n">
-        <v>44228.6250000005</v>
+        <v>44230.6250000022</v>
       </c>
       <c r="C67" s="10" t="n">
         <v>2</v>
@@ -3048,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="12" t="n">
         <v>70</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="68" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="9" t="n">
-        <v>44228.6666666672</v>
+        <v>44230.6666666689</v>
       </c>
       <c r="C68" s="10" t="n">
         <v>3</v>
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="12" t="n">
         <v>70</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="69" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="9" t="n">
-        <v>44228.7083333339</v>
+        <v>44230.7083333356</v>
       </c>
       <c r="C69" s="10" t="n">
         <v>3</v>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="12" t="n">
         <v>70</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="70" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="9" t="n">
-        <v>44228.7500000006</v>
+        <v>44230.7500000023</v>
       </c>
       <c r="C70" s="10" t="n">
         <v>3</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="12" t="n">
         <v>70</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="71" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="9" t="n">
-        <v>44228.7916666673</v>
+        <v>44230.791666669</v>
       </c>
       <c r="C71" s="10" t="n">
         <v>3</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="12" t="n">
         <v>70</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="72" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="9" t="n">
-        <v>44228.833333334</v>
+        <v>44230.8333333357</v>
       </c>
       <c r="C72" s="10" t="n">
         <v>3</v>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="12" t="n">
         <v>70</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="73" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="9" t="n">
-        <v>44228.8750000007</v>
+        <v>44230.8750000024</v>
       </c>
       <c r="C73" s="10" t="n">
         <v>3</v>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="12" t="n">
         <v>70</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="74" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="9" t="n">
-        <v>44228.9166666674</v>
+        <v>44230.9166666691</v>
       </c>
       <c r="C74" s="10" t="n">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="12" t="n">
         <v>70</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="75" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="9" t="n">
-        <v>44228.9583333341</v>
+        <v>44230.9583333358</v>
       </c>
       <c r="C75" s="10" t="n">
         <v>1</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" s="12" t="n">
         <v>70</v>
@@ -3368,10 +3368,10 @@
   <dimension ref="B2:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.53"/>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="12" t="n">
         <v>70</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="12" t="n">
         <v>70</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="12" t="n">
         <v>70</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="12" t="n">
         <v>70</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="12" t="n">
         <v>70</v>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="12" t="n">
         <v>70</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="12" t="n">
         <v>70</v>
@@ -3675,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="12" t="n">
         <v>70</v>
@@ -3707,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="12" t="n">
         <v>70</v>
@@ -3739,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="12" t="n">
         <v>70</v>
@@ -3771,10 +3771,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="12" t="n">
         <v>70</v>
@@ -3803,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" s="12" t="n">
         <v>70</v>
@@ -3835,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="12" t="n">
         <v>70</v>
@@ -3867,10 +3867,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="12" t="n">
         <v>70</v>
@@ -3899,10 +3899,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="12" t="n">
         <v>70</v>
@@ -3931,10 +3931,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="12" t="n">
         <v>70</v>
@@ -3963,10 +3963,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" s="12" t="n">
         <v>70</v>
@@ -3995,10 +3995,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="12" t="n">
         <v>70</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" s="12" t="n">
         <v>70</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="12" t="n">
         <v>70</v>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="12" t="n">
         <v>70</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="12" t="n">
         <v>70</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="12" t="n">
         <v>70</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="12" t="n">
         <v>70</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="n">
-        <v>44228</v>
+        <v>44229.0000000008</v>
       </c>
       <c r="C28" s="10" t="n">
         <v>1</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="12" t="n">
         <v>70</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="n">
-        <v>44228.0416666667</v>
+        <v>44229.0416666675</v>
       </c>
       <c r="C29" s="10" t="n">
         <v>1</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="12" t="n">
         <v>70</v>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="n">
-        <v>44228.0833333334</v>
+        <v>44229.0833333342</v>
       </c>
       <c r="C30" s="10" t="n">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="12" t="n">
         <v>70</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="31" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="n">
-        <v>44228.1250000001</v>
+        <v>44229.1250000009</v>
       </c>
       <c r="C31" s="10" t="n">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="12" t="n">
         <v>70</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="32" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="n">
-        <v>44228.1666666668</v>
+        <v>44229.1666666676</v>
       </c>
       <c r="C32" s="10" t="n">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="12" t="n">
         <v>70</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="33" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="n">
-        <v>44228.2083333335</v>
+        <v>44229.2083333343</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>1</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="12" t="n">
         <v>70</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="34" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="n">
-        <v>44228.2500000002</v>
+        <v>44229.250000001</v>
       </c>
       <c r="C34" s="10" t="n">
         <v>3</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="12" t="n">
         <v>70</v>
@@ -4437,16 +4437,16 @@
     </row>
     <row r="35" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="n">
-        <v>44228.2916666669</v>
+        <v>44229.2916666677</v>
       </c>
       <c r="C35" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" s="12" t="n">
         <v>70</v>
@@ -4469,16 +4469,16 @@
     </row>
     <row r="36" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="n">
-        <v>44228.3333333336</v>
+        <v>44229.3333333344</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="12" t="n">
         <v>70</v>
@@ -4501,16 +4501,16 @@
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="n">
-        <v>44228.3750000003</v>
+        <v>44229.3750000011</v>
       </c>
       <c r="C37" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F37" s="12" t="n">
         <v>70</v>
@@ -4533,16 +4533,16 @@
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="n">
-        <v>44228.416666667</v>
+        <v>44229.4166666678</v>
       </c>
       <c r="C38" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E38" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="12" t="n">
         <v>70</v>
@@ -4565,16 +4565,16 @@
     </row>
     <row r="39" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="n">
-        <v>44228.4583333337</v>
+        <v>44229.4583333345</v>
       </c>
       <c r="C39" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E39" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" s="12" t="n">
         <v>70</v>
@@ -4597,16 +4597,16 @@
     </row>
     <row r="40" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="n">
-        <v>44228.5000000004</v>
+        <v>44229.5000000012</v>
       </c>
       <c r="C40" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E40" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F40" s="12" t="n">
         <v>70</v>
@@ -4629,16 +4629,16 @@
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="n">
-        <v>44228.5416666671</v>
+        <v>44229.5416666679</v>
       </c>
       <c r="C41" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E41" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F41" s="12" t="n">
         <v>70</v>
@@ -4661,16 +4661,16 @@
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="n">
-        <v>44228.5833333338</v>
+        <v>44229.5833333346</v>
       </c>
       <c r="C42" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E42" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="12" t="n">
         <v>70</v>
@@ -4693,16 +4693,16 @@
     </row>
     <row r="43" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="n">
-        <v>44228.6250000005</v>
+        <v>44229.6250000013</v>
       </c>
       <c r="C43" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" s="12" t="n">
         <v>70</v>
@@ -4725,16 +4725,16 @@
     </row>
     <row r="44" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="n">
-        <v>44228.6666666672</v>
+        <v>44229.666666668</v>
       </c>
       <c r="C44" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F44" s="12" t="n">
         <v>70</v>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="45" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="n">
-        <v>44228.7083333339</v>
+        <v>44229.7083333347</v>
       </c>
       <c r="C45" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="12" t="n">
         <v>70</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="46" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="n">
-        <v>44228.7500000006</v>
+        <v>44229.7500000014</v>
       </c>
       <c r="C46" s="10" t="n">
         <v>3</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F46" s="12" t="n">
         <v>70</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="n">
-        <v>44228.7916666673</v>
+        <v>44229.7916666681</v>
       </c>
       <c r="C47" s="10" t="n">
         <v>3</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F47" s="12" t="n">
         <v>70</v>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="n">
-        <v>44228.833333334</v>
+        <v>44229.8333333348</v>
       </c>
       <c r="C48" s="10" t="n">
         <v>3</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F48" s="12" t="n">
         <v>70</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="9" t="n">
-        <v>44228.8750000007</v>
+        <v>44229.8750000015</v>
       </c>
       <c r="C49" s="10" t="n">
         <v>3</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F49" s="12" t="n">
         <v>70</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="9" t="n">
-        <v>44228.9166666674</v>
+        <v>44229.9166666682</v>
       </c>
       <c r="C50" s="10" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="12" t="n">
         <v>70</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="9" t="n">
-        <v>44228.9583333341</v>
+        <v>44229.9583333349</v>
       </c>
       <c r="C51" s="10" t="n">
         <v>1</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="12" t="n">
         <v>70</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="9" t="n">
-        <v>44228</v>
+        <v>44230.0000000016</v>
       </c>
       <c r="C52" s="10" t="n">
         <v>1</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="12" t="n">
         <v>70</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="9" t="n">
-        <v>44228.0416666667</v>
+        <v>44230.0416666684</v>
       </c>
       <c r="C53" s="10" t="n">
         <v>1</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="12" t="n">
         <v>70</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="9" t="n">
-        <v>44228.0833333334</v>
+        <v>44230.0833333351</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="12" t="n">
         <v>70</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="9" t="n">
-        <v>44228.1250000001</v>
+        <v>44230.1250000018</v>
       </c>
       <c r="C55" s="10" t="n">
         <v>1</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55" s="12" t="n">
         <v>70</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="9" t="n">
-        <v>44228.1666666668</v>
+        <v>44230.1666666685</v>
       </c>
       <c r="C56" s="10" t="n">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F56" s="12" t="n">
         <v>70</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="57" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="9" t="n">
-        <v>44228.2083333335</v>
+        <v>44230.2083333352</v>
       </c>
       <c r="C57" s="10" t="n">
         <v>1</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F57" s="12" t="n">
         <v>70</v>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="58" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="9" t="n">
-        <v>44228.2500000002</v>
+        <v>44230.2500000019</v>
       </c>
       <c r="C58" s="10" t="n">
         <v>3</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F58" s="12" t="n">
         <v>70</v>
@@ -5205,16 +5205,16 @@
     </row>
     <row r="59" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="9" t="n">
-        <v>44228.2916666669</v>
+        <v>44230.2916666686</v>
       </c>
       <c r="C59" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" s="12" t="n">
         <v>70</v>
@@ -5237,16 +5237,16 @@
     </row>
     <row r="60" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="9" t="n">
-        <v>44228.3333333336</v>
+        <v>44230.3333333353</v>
       </c>
       <c r="C60" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F60" s="12" t="n">
         <v>70</v>
@@ -5269,16 +5269,16 @@
     </row>
     <row r="61" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="9" t="n">
-        <v>44228.3750000003</v>
+        <v>44230.375000002</v>
       </c>
       <c r="C61" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F61" s="12" t="n">
         <v>70</v>
@@ -5301,16 +5301,16 @@
     </row>
     <row r="62" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="9" t="n">
-        <v>44228.416666667</v>
+        <v>44230.4166666687</v>
       </c>
       <c r="C62" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E62" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="12" t="n">
         <v>70</v>
@@ -5333,16 +5333,16 @@
     </row>
     <row r="63" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="9" t="n">
-        <v>44228.4583333337</v>
+        <v>44230.4583333354</v>
       </c>
       <c r="C63" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E63" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F63" s="12" t="n">
         <v>70</v>
@@ -5365,16 +5365,16 @@
     </row>
     <row r="64" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="9" t="n">
-        <v>44228.5000000004</v>
+        <v>44230.5000000021</v>
       </c>
       <c r="C64" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E64" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" s="12" t="n">
         <v>70</v>
@@ -5397,16 +5397,16 @@
     </row>
     <row r="65" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="9" t="n">
-        <v>44228.5416666671</v>
+        <v>44230.5416666688</v>
       </c>
       <c r="C65" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E65" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65" s="12" t="n">
         <v>70</v>
@@ -5429,16 +5429,16 @@
     </row>
     <row r="66" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="9" t="n">
-        <v>44228.5833333338</v>
+        <v>44230.5833333355</v>
       </c>
       <c r="C66" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E66" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" s="12" t="n">
         <v>70</v>
@@ -5461,16 +5461,16 @@
     </row>
     <row r="67" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="9" t="n">
-        <v>44228.6250000005</v>
+        <v>44230.6250000022</v>
       </c>
       <c r="C67" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" s="12" t="n">
         <v>70</v>
@@ -5493,16 +5493,16 @@
     </row>
     <row r="68" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="9" t="n">
-        <v>44228.6666666672</v>
+        <v>44230.6666666689</v>
       </c>
       <c r="C68" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E68" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F68" s="12" t="n">
         <v>70</v>
@@ -5525,16 +5525,16 @@
     </row>
     <row r="69" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="9" t="n">
-        <v>44228.7083333339</v>
+        <v>44230.7083333356</v>
       </c>
       <c r="C69" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69" s="12" t="n">
         <v>70</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="70" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="9" t="n">
-        <v>44228.7500000006</v>
+        <v>44230.7500000023</v>
       </c>
       <c r="C70" s="10" t="n">
         <v>3</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" s="12" t="n">
         <v>70</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="71" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="9" t="n">
-        <v>44228.7916666673</v>
+        <v>44230.791666669</v>
       </c>
       <c r="C71" s="10" t="n">
         <v>3</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F71" s="12" t="n">
         <v>70</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="72" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="9" t="n">
-        <v>44228.833333334</v>
+        <v>44230.8333333357</v>
       </c>
       <c r="C72" s="10" t="n">
         <v>3</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F72" s="12" t="n">
         <v>70</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="73" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="9" t="n">
-        <v>44228.8750000007</v>
+        <v>44230.8750000024</v>
       </c>
       <c r="C73" s="10" t="n">
         <v>3</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F73" s="12" t="n">
         <v>70</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="74" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="9" t="n">
-        <v>44228.9166666674</v>
+        <v>44230.9166666691</v>
       </c>
       <c r="C74" s="10" t="n">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="12" t="n">
         <v>70</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="75" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="9" t="n">
-        <v>44228.9583333341</v>
+        <v>44230.9583333358</v>
       </c>
       <c r="C75" s="10" t="n">
         <v>1</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="12" t="n">
         <v>70</v>
@@ -5769,11 +5769,11 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.53"/>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>14</v>
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>14</v>
@@ -5923,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>14</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>14</v>
@@ -5984,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>14</v>
@@ -6016,10 +6016,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>14</v>
@@ -6048,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>14</v>
@@ -6077,13 +6077,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>14</v>
@@ -6109,13 +6109,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>14</v>
@@ -6141,13 +6141,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>14</v>
@@ -6173,13 +6173,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>14</v>
@@ -6205,13 +6205,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>14</v>
@@ -6237,13 +6237,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>14</v>
@@ -6269,13 +6269,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>14</v>
@@ -6301,13 +6301,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>14</v>
@@ -6333,13 +6333,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>14</v>
@@ -6365,13 +6365,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>14</v>
@@ -6397,13 +6397,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>14</v>
@@ -6432,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>14</v>
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>14</v>
@@ -6496,10 +6496,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>14</v>
@@ -6528,10 +6528,10 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>14</v>
@@ -6563,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>14</v>
@@ -6595,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>14</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="28" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="n">
-        <v>44228</v>
+        <v>44229.0000000008</v>
       </c>
       <c r="C28" s="10" t="n">
         <v>1</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>14</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="29" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="n">
-        <v>44228.0416666667</v>
+        <v>44229.0416666675</v>
       </c>
       <c r="C29" s="10" t="n">
         <v>1</v>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>14</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="30" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="n">
-        <v>44228.0833333334</v>
+        <v>44229.0833333342</v>
       </c>
       <c r="C30" s="10" t="n">
         <v>1</v>
@@ -6691,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>14</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="31" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="n">
-        <v>44228.1250000001</v>
+        <v>44229.1250000009</v>
       </c>
       <c r="C31" s="10" t="n">
         <v>1</v>
@@ -6723,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>14</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="32" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="n">
-        <v>44228.1666666668</v>
+        <v>44229.1666666676</v>
       </c>
       <c r="C32" s="10" t="n">
         <v>1</v>
@@ -6752,10 +6752,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>14</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="33" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="n">
-        <v>44228.2083333335</v>
+        <v>44229.2083333343</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>1</v>
@@ -6784,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>14</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="34" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="n">
-        <v>44228.2500000002</v>
+        <v>44229.250000001</v>
       </c>
       <c r="C34" s="10" t="n">
         <v>3</v>
@@ -6816,10 +6816,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>14</v>
@@ -6839,19 +6839,19 @@
     </row>
     <row r="35" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="9" t="n">
-        <v>44228.2916666669</v>
+        <v>44229.2916666677</v>
       </c>
       <c r="C35" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>14</v>
@@ -6871,19 +6871,19 @@
     </row>
     <row r="36" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="n">
-        <v>44228.3333333336</v>
+        <v>44229.3333333344</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D36" s="11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>14</v>
@@ -6903,19 +6903,19 @@
     </row>
     <row r="37" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="n">
-        <v>44228.3750000003</v>
+        <v>44229.3750000011</v>
       </c>
       <c r="C37" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E37" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>14</v>
@@ -6935,19 +6935,19 @@
     </row>
     <row r="38" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="9" t="n">
-        <v>44228.416666667</v>
+        <v>44229.4166666678</v>
       </c>
       <c r="C38" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>14</v>
@@ -6967,19 +6967,19 @@
     </row>
     <row r="39" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="9" t="n">
-        <v>44228.4583333337</v>
+        <v>44229.4583333345</v>
       </c>
       <c r="C39" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D39" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>14</v>
@@ -6999,19 +6999,19 @@
     </row>
     <row r="40" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="9" t="n">
-        <v>44228.5000000004</v>
+        <v>44229.5000000012</v>
       </c>
       <c r="C40" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G40" s="13" t="s">
         <v>14</v>
@@ -7031,19 +7031,19 @@
     </row>
     <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="n">
-        <v>44228.5416666671</v>
+        <v>44229.5416666679</v>
       </c>
       <c r="C41" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>14</v>
@@ -7063,19 +7063,19 @@
     </row>
     <row r="42" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="9" t="n">
-        <v>44228.5833333338</v>
+        <v>44229.5833333346</v>
       </c>
       <c r="C42" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>14</v>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="43" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="9" t="n">
-        <v>44228.6250000005</v>
+        <v>44229.6250000013</v>
       </c>
       <c r="C43" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E43" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G43" s="13" t="s">
         <v>14</v>
@@ -7127,19 +7127,19 @@
     </row>
     <row r="44" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="9" t="n">
-        <v>44228.6666666672</v>
+        <v>44229.666666668</v>
       </c>
       <c r="C44" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D44" s="11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>14</v>
@@ -7159,19 +7159,19 @@
     </row>
     <row r="45" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="9" t="n">
-        <v>44228.7083333339</v>
+        <v>44229.7083333347</v>
       </c>
       <c r="C45" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D45" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>14</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="46" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="9" t="n">
-        <v>44228.7500000006</v>
+        <v>44229.7500000014</v>
       </c>
       <c r="C46" s="10" t="n">
         <v>3</v>
@@ -7200,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>14</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="47" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="n">
-        <v>44228.7916666673</v>
+        <v>44229.7916666681</v>
       </c>
       <c r="C47" s="10" t="n">
         <v>3</v>
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>14</v>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="48" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="9" t="n">
-        <v>44228.833333334</v>
+        <v>44229.8333333348</v>
       </c>
       <c r="C48" s="10" t="n">
         <v>3</v>
@@ -7264,10 +7264,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>14</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="49" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="9" t="n">
-        <v>44228.8750000007</v>
+        <v>44229.8750000015</v>
       </c>
       <c r="C49" s="10" t="n">
         <v>3</v>
@@ -7296,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>14</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="50" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="9" t="n">
-        <v>44228.9166666674</v>
+        <v>44229.9166666682</v>
       </c>
       <c r="C50" s="10" t="n">
         <v>1</v>
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>14</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="51" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="9" t="n">
-        <v>44228.9583333341</v>
+        <v>44229.9583333349</v>
       </c>
       <c r="C51" s="10" t="n">
         <v>1</v>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>14</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="52" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="9" t="n">
-        <v>44228</v>
+        <v>44230.0000000016</v>
       </c>
       <c r="C52" s="10" t="n">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>14</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="53" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="9" t="n">
-        <v>44228.0416666667</v>
+        <v>44230.0416666684</v>
       </c>
       <c r="C53" s="10" t="n">
         <v>1</v>
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>14</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="54" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="9" t="n">
-        <v>44228.0833333334</v>
+        <v>44230.0833333351</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>1</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>14</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="55" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="9" t="n">
-        <v>44228.1250000001</v>
+        <v>44230.1250000018</v>
       </c>
       <c r="C55" s="10" t="n">
         <v>1</v>
@@ -7491,7 +7491,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>14</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="56" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="9" t="n">
-        <v>44228.1666666668</v>
+        <v>44230.1666666685</v>
       </c>
       <c r="C56" s="10" t="n">
         <v>1</v>
@@ -7520,10 +7520,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>14</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="57" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="9" t="n">
-        <v>44228.2083333335</v>
+        <v>44230.2083333352</v>
       </c>
       <c r="C57" s="10" t="n">
         <v>1</v>
@@ -7552,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>14</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="58" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="9" t="n">
-        <v>44228.2500000002</v>
+        <v>44230.2500000019</v>
       </c>
       <c r="C58" s="10" t="n">
         <v>3</v>
@@ -7584,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>14</v>
@@ -7607,19 +7607,19 @@
     </row>
     <row r="59" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="9" t="n">
-        <v>44228.2916666669</v>
+        <v>44230.2916666686</v>
       </c>
       <c r="C59" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>14</v>
@@ -7639,19 +7639,19 @@
     </row>
     <row r="60" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="9" t="n">
-        <v>44228.3333333336</v>
+        <v>44230.3333333353</v>
       </c>
       <c r="C60" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E60" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>14</v>
@@ -7671,19 +7671,19 @@
     </row>
     <row r="61" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="9" t="n">
-        <v>44228.3750000003</v>
+        <v>44230.375000002</v>
       </c>
       <c r="C61" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D61" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E61" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>14</v>
@@ -7703,19 +7703,19 @@
     </row>
     <row r="62" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="9" t="n">
-        <v>44228.416666667</v>
+        <v>44230.4166666687</v>
       </c>
       <c r="C62" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D62" s="11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E62" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>14</v>
@@ -7735,19 +7735,19 @@
     </row>
     <row r="63" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="9" t="n">
-        <v>44228.4583333337</v>
+        <v>44230.4583333354</v>
       </c>
       <c r="C63" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D63" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E63" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>14</v>
@@ -7767,19 +7767,19 @@
     </row>
     <row r="64" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="9" t="n">
-        <v>44228.5000000004</v>
+        <v>44230.5000000021</v>
       </c>
       <c r="C64" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E64" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>14</v>
@@ -7799,19 +7799,19 @@
     </row>
     <row r="65" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="9" t="n">
-        <v>44228.5416666671</v>
+        <v>44230.5416666688</v>
       </c>
       <c r="C65" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E65" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>14</v>
@@ -7831,19 +7831,19 @@
     </row>
     <row r="66" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="9" t="n">
-        <v>44228.5833333338</v>
+        <v>44230.5833333355</v>
       </c>
       <c r="C66" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E66" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>14</v>
@@ -7863,19 +7863,19 @@
     </row>
     <row r="67" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="9" t="n">
-        <v>44228.6250000005</v>
+        <v>44230.6250000022</v>
       </c>
       <c r="C67" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>14</v>
@@ -7895,19 +7895,19 @@
     </row>
     <row r="68" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="9" t="n">
-        <v>44228.6666666672</v>
+        <v>44230.6666666689</v>
       </c>
       <c r="C68" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D68" s="11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E68" s="11" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>14</v>
@@ -7927,19 +7927,19 @@
     </row>
     <row r="69" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="9" t="n">
-        <v>44228.7083333339</v>
+        <v>44230.7083333356</v>
       </c>
       <c r="C69" s="10" t="n">
         <v>3</v>
       </c>
       <c r="D69" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>14</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="70" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="9" t="n">
-        <v>44228.7500000006</v>
+        <v>44230.7500000023</v>
       </c>
       <c r="C70" s="10" t="n">
         <v>3</v>
@@ -7968,10 +7968,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>14</v>
@@ -7991,7 +7991,7 @@
     </row>
     <row r="71" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="9" t="n">
-        <v>44228.7916666673</v>
+        <v>44230.791666669</v>
       </c>
       <c r="C71" s="10" t="n">
         <v>3</v>
@@ -8000,10 +8000,10 @@
         <v>0</v>
       </c>
       <c r="E71" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G71" s="13" t="s">
         <v>14</v>
@@ -8023,7 +8023,7 @@
     </row>
     <row r="72" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="9" t="n">
-        <v>44228.833333334</v>
+        <v>44230.8333333357</v>
       </c>
       <c r="C72" s="10" t="n">
         <v>3</v>
@@ -8032,10 +8032,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>14</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="73" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="9" t="n">
-        <v>44228.8750000007</v>
+        <v>44230.8750000024</v>
       </c>
       <c r="C73" s="10" t="n">
         <v>3</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="E73" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>14</v>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="74" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="9" t="n">
-        <v>44228.9166666674</v>
+        <v>44230.9166666691</v>
       </c>
       <c r="C74" s="10" t="n">
         <v>1</v>
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>14</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="75" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="9" t="n">
-        <v>44228.9583333341</v>
+        <v>44230.9583333358</v>
       </c>
       <c r="C75" s="10" t="n">
         <v>1</v>
@@ -8131,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="12" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>14</v>
@@ -8175,7 +8175,7 @@
       <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.43"/>
@@ -10350,7 +10350,7 @@
       <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.43"/>

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="23">
   <si>
     <t xml:space="preserve">USER 1</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">USER 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON</t>
   </si>
   <si>
     <t xml:space="preserve">User</t>
@@ -537,7 +540,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -549,10 +552,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.000254576003665894"/>
-          <c:y val="0.0296318467524693"/>
-          <c:w val="0.956569333774598"/>
-          <c:h val="0.925870497854934"/>
+          <c:x val="0.000254582484725051"/>
+          <c:y val="0.0296348034324486"/>
+          <c:w val="0.956542769857434"/>
+          <c:h val="0.925763320694472"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -687,11 +690,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="81952986"/>
-        <c:axId val="5940917"/>
+        <c:axId val="19711027"/>
+        <c:axId val="32925942"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81952986"/>
+        <c:axId val="19711027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,7 +726,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5940917"/>
+        <c:crossAx val="32925942"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -731,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5940917"/>
+        <c:axId val="32925942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +773,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81952986"/>
+        <c:crossAx val="19711027"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -809,9 +812,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
+      <xdr:colOff>243360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -820,7 +823,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10829520" y="689400"/>
-        <a:ext cx="14140800" cy="3607920"/>
+        <a:ext cx="14140440" cy="3607560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -833,6 +836,2094 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{8240E270-A98B-4312-BC93-4E2966BDFC3C}">
+  <header guid="{47383B97-56DC-437F-9C8B-B024C0842C34}" dateTime="2021-05-05T04:55:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="27" maxSheetId="6">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E361EE9E-CF74-4B55-948F-041C572E65B3}" dateTime="2021-05-05T04:56:00.000000000Z" userName=" " r:id="rId2" minRId="28" maxRId="70" maxSheetId="6">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8240E270-A98B-4312-BC93-4E2966BDFC3C}" dateTime="2021-05-05T04:57:00.000000000Z" userName=" " r:id="rId3" minRId="71" maxRId="115" maxSheetId="6">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1" ua="false" sId="4">
+    <nc r="I4" t="n">
+      <v>60</v>
+    </nc>
+  </rcc>
+  <rcc rId="2" ua="false" sId="4">
+    <oc r="G4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" ua="false" sId="4">
+    <oc r="G5" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G5" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" ua="false" sId="4">
+    <oc r="G6" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G6" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" ua="false" sId="4">
+    <oc r="G7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G7" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" ua="false" sId="4">
+    <oc r="G8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G8" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" ua="false" sId="4">
+    <oc r="G11" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G11" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" ua="false" sId="4">
+    <oc r="G12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G12" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" ua="false" sId="4">
+    <oc r="G13" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G13" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" ua="false" sId="4">
+    <oc r="G14" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G14" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" ua="false" sId="4">
+    <oc r="G15" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G15" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" ua="false" sId="4">
+    <oc r="G16" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G16" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" ua="false" sId="4">
+    <oc r="G17" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G17" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" ua="false" sId="4">
+    <nc r="H4" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="15" ua="false" sId="4">
+    <nc r="H5" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="16" ua="false" sId="4">
+    <nc r="H6" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="17" ua="false" sId="4">
+    <nc r="H7" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="18" ua="false" sId="4">
+    <nc r="H8" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="19" ua="false" sId="4">
+    <oc r="H11" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H11"/>
+  </rcc>
+  <rcc rId="20" ua="false" sId="4">
+    <oc r="H12" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H12"/>
+  </rcc>
+  <rcc rId="21" ua="false" sId="4">
+    <oc r="H13" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H13"/>
+  </rcc>
+  <rcc rId="22" ua="false" sId="4">
+    <oc r="H14" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H14"/>
+  </rcc>
+  <rcc rId="23" ua="false" sId="4">
+    <oc r="H15" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H15"/>
+  </rcc>
+  <rcc rId="24" ua="false" sId="4">
+    <oc r="H16" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H16"/>
+  </rcc>
+  <rcc rId="25" ua="false" sId="4">
+    <oc r="H17" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H17"/>
+  </rcc>
+  <rcc rId="26" ua="false" sId="4">
+    <oc r="I11" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I11"/>
+  </rcc>
+  <rcc rId="27" ua="false" sId="4">
+    <oc r="I19" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I19"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="28" ua="false" sId="4">
+    <oc r="H32" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H32"/>
+  </rcc>
+  <rcc rId="29" ua="false" sId="4">
+    <oc r="H33" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H33"/>
+  </rcc>
+  <rcc rId="30" ua="false" sId="4">
+    <oc r="H34" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H34"/>
+  </rcc>
+  <rcc rId="31" ua="false" sId="4">
+    <oc r="G19" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G19" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" ua="false" sId="4">
+    <oc r="G20" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G20" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" ua="false" sId="4">
+    <oc r="G21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G21" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" ua="false" sId="4">
+    <oc r="G22" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G22" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" ua="false" sId="4">
+    <oc r="G23" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G23" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" ua="false" sId="4">
+    <oc r="G24" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G24" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" ua="false" sId="4">
+    <oc r="G25" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G25" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" ua="false" sId="4">
+    <oc r="G26" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G26" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" ua="false" sId="4">
+    <oc r="G27" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G27" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" ua="false" sId="4">
+    <oc r="G28" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G28" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" ua="false" sId="4">
+    <oc r="G29" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G29" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" ua="false" sId="4">
+    <oc r="G30" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G30" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" ua="false" sId="4">
+    <oc r="G31" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G31" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" ua="false" sId="4">
+    <oc r="G32" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G32" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="45" ua="false" sId="4">
+    <nc r="H32" t="n">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="46" ua="false" sId="4">
+    <oc r="H32" t="n">
+      <v>3</v>
+    </oc>
+    <nc r="H32" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="47" ua="false" sId="4">
+    <oc r="G42" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G42" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="48" ua="false" sId="4">
+    <oc r="G43" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G43" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="49" ua="false" sId="4">
+    <oc r="G44" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G44" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="50" ua="false" sId="4">
+    <oc r="G45" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G45" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" ua="false" sId="4">
+    <oc r="G46" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G46" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" ua="false" sId="4">
+    <oc r="G47" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G47" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" ua="false" sId="4">
+    <oc r="G48" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G48" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" ua="false" sId="4">
+    <oc r="G49" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G49" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" ua="false" sId="4">
+    <oc r="G50" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G50" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" ua="false" sId="4">
+    <oc r="G51" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G51" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="57" ua="false" sId="4">
+    <oc r="G52" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G52" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="58" ua="false" sId="4">
+    <oc r="G53" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G53" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="59" ua="false" sId="4">
+    <oc r="G54" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G54" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="60" ua="false" sId="4">
+    <oc r="G55" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G55" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" ua="false" sId="4">
+    <oc r="G56" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G56" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" ua="false" sId="4">
+    <nc r="H42" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="63" ua="false" sId="4">
+    <oc r="H43" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H43" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="64" ua="false" sId="4">
+    <oc r="H44" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H44" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="65" ua="false" sId="4">
+    <oc r="H45" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H45" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="66" ua="false" sId="4">
+    <oc r="H46" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H46" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="67" ua="false" sId="4">
+    <oc r="H47" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H47" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="68" ua="false" sId="4">
+    <oc r="H48" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H48" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="69" ua="false" sId="4">
+    <nc r="I42" t="n">
+      <v>60</v>
+    </nc>
+  </rcc>
+  <rcc rId="70" ua="false" sId="4">
+    <oc r="I43" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I43"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="71" ua="false" sId="4">
+    <oc r="G66" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G66" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" ua="false" sId="4">
+    <oc r="G67" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G67" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" ua="false" sId="4">
+    <oc r="G68" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G68" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" ua="false" sId="4">
+    <oc r="G69" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G69" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" ua="false" sId="4">
+    <oc r="G70" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G70" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="76" ua="false" sId="4">
+    <oc r="G71" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G71" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="77" ua="false" sId="4">
+    <oc r="G72" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G72" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="78" ua="false" sId="4">
+    <oc r="G73" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G73" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="79" ua="false" sId="4">
+    <oc r="G74" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G74" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="80" ua="false" sId="4">
+    <oc r="G75" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G75" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" ua="false" sId="4">
+    <nc r="G76" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="82" ua="false" sId="4">
+    <nc r="G77" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="83" ua="false" sId="4">
+    <nc r="G78" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="84" ua="false" sId="4">
+    <nc r="G79" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="85" ua="false" sId="4">
+    <nc r="G80" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="86" ua="false" sId="4">
+    <oc r="H57" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H57"/>
+  </rcc>
+  <rcc rId="87" ua="false" sId="4">
+    <oc r="H58" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H58"/>
+  </rcc>
+  <rcc rId="88" ua="false" sId="4">
+    <nc r="H66" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="89" ua="false" sId="4">
+    <oc r="H67" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H67" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="90" ua="false" sId="4">
+    <oc r="H68" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H68" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="91" ua="false" sId="4">
+    <oc r="H69" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H69" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="92" ua="false" sId="4">
+    <oc r="H70" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H70" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="93" ua="false" sId="4">
+    <oc r="H71" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H71" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="94" ua="false" sId="4">
+    <oc r="H72" t="n">
+      <v>1</v>
+    </oc>
+    <nc r="H72" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="95" ua="false" sId="4">
+    <nc r="H76" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="96" ua="false" sId="4">
+    <nc r="H77" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="97" ua="false" sId="4">
+    <nc r="H78" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="98" ua="false" sId="4">
+    <nc r="H79" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="99" ua="false" sId="4">
+    <nc r="H80" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="100" ua="false" sId="4">
+    <nc r="I66" t="n">
+      <v>60</v>
+    </nc>
+  </rcc>
+  <rcc rId="101" ua="false" sId="4">
+    <oc r="I67" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I67"/>
+  </rcc>
+  <rcc rId="102" ua="false" sId="4">
+    <oc r="G76" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G76"/>
+  </rcc>
+  <rcc rId="103" ua="false" sId="4">
+    <oc r="G77" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G77"/>
+  </rcc>
+  <rcc rId="104" ua="false" sId="4">
+    <oc r="G78" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G78"/>
+  </rcc>
+  <rcc rId="105" ua="false" sId="4">
+    <oc r="G79" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G79"/>
+  </rcc>
+  <rcc rId="106" ua="false" sId="4">
+    <oc r="G80" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G80"/>
+  </rcc>
+  <rcc rId="107" ua="false" sId="4">
+    <oc r="H76" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H76"/>
+  </rcc>
+  <rcc rId="108" ua="false" sId="4">
+    <oc r="H77" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H77"/>
+  </rcc>
+  <rcc rId="109" ua="false" sId="4">
+    <oc r="H78" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H78"/>
+  </rcc>
+  <rcc rId="110" ua="false" sId="4">
+    <oc r="H79" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H79"/>
+  </rcc>
+  <rcc rId="111" ua="false" sId="4">
+    <oc r="H80" t="n">
+      <v>2</v>
+    </oc>
+    <nc r="H80"/>
+  </rcc>
+  <rcc rId="112" ua="false" sId="4">
+    <oc r="I4" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I4" t="n">
+      <v>40</v>
+    </nc>
+  </rcc>
+  <rcc rId="113" ua="false" sId="4">
+    <oc r="I18" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I18" t="n">
+      <v>40</v>
+    </nc>
+  </rcc>
+  <rcc rId="114" ua="false" sId="4">
+    <oc r="I42" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I42" t="n">
+      <v>40</v>
+    </nc>
+  </rcc>
+  <rcc rId="115" ua="false" sId="4">
+    <oc r="I66" t="n">
+      <v>60</v>
+    </oc>
+    <nc r="I66" t="n">
+      <v>40</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -840,7 +2931,7 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J92" activeCellId="0" sqref="J92"/>
     </sheetView>
   </sheetViews>
@@ -8254,8 +10345,8 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I82" activeCellId="0" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8347,13 +10438,13 @@
         <v>70</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" s="13" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -8383,7 +10474,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13" t="n">
         <v>2</v>
@@ -8417,7 +10508,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="13" t="n">
         <v>2</v>
@@ -8451,7 +10542,7 @@
         <v>70</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="13" t="n">
         <v>2</v>
@@ -8485,7 +10576,7 @@
         <v>70</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="13" t="n">
         <v>2</v>
@@ -8521,9 +10612,7 @@
       <c r="G9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14" t="s">
         <v>13</v>
@@ -8555,9 +10644,7 @@
       <c r="G10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="14" t="s">
         <v>13</v>
@@ -8811,10 +10898,14 @@
         <v>70</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="13" t="n">
+        <v>40</v>
+      </c>
       <c r="J18" s="14" t="s">
         <v>13</v>
       </c>
@@ -8843,14 +10934,12 @@
         <v>70</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13" t="n">
-        <v>60</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I19" s="13"/>
       <c r="J19" s="14" t="s">
         <v>13</v>
       </c>
@@ -8879,10 +10968,10 @@
         <v>70</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="14" t="s">
@@ -8913,10 +11002,10 @@
         <v>70</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="14" t="s">
@@ -8947,10 +11036,10 @@
         <v>70</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="14" t="s">
@@ -8981,10 +11070,10 @@
         <v>70</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="14" t="s">
@@ -9015,10 +11104,10 @@
         <v>70</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H24" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="14" t="s">
@@ -9049,7 +11138,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H25" s="13" t="n">
         <v>2</v>
@@ -9083,7 +11172,7 @@
         <v>70</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" s="13" t="n">
         <v>2</v>
@@ -9117,7 +11206,7 @@
         <v>70</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27" s="13" t="n">
         <v>2</v>
@@ -9151,7 +11240,7 @@
         <v>70</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H28" s="13" t="n">
         <v>2</v>
@@ -9185,7 +11274,7 @@
         <v>70</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H29" s="13" t="n">
         <v>2</v>
@@ -9219,7 +11308,7 @@
         <v>70</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H30" s="13" t="n">
         <v>2</v>
@@ -9253,7 +11342,7 @@
         <v>70</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H31" s="13" t="n">
         <v>2</v>
@@ -9287,7 +11376,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" s="13" t="n">
         <v>2</v>
@@ -9323,9 +11412,7 @@
       <c r="G33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="14" t="s">
         <v>13</v>
@@ -9357,9 +11444,7 @@
       <c r="G34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="14" t="s">
         <v>13</v>
@@ -9613,10 +11698,14 @@
         <v>70</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="H42" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="13" t="n">
+        <v>40</v>
+      </c>
       <c r="J42" s="14" t="s">
         <v>13</v>
       </c>
@@ -9645,14 +11734,12 @@
         <v>70</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="13" t="n">
-        <v>60</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" s="13"/>
       <c r="J43" s="14" t="s">
         <v>13</v>
       </c>
@@ -9681,10 +11768,10 @@
         <v>70</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H44" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="14" t="s">
@@ -9715,10 +11802,10 @@
         <v>70</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H45" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="14" t="s">
@@ -9749,10 +11836,10 @@
         <v>70</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H46" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="14" t="s">
@@ -9783,10 +11870,10 @@
         <v>70</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H47" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="14" t="s">
@@ -9817,10 +11904,10 @@
         <v>70</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H48" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="14" t="s">
@@ -9851,7 +11938,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H49" s="13" t="n">
         <v>2</v>
@@ -9885,7 +11972,7 @@
         <v>70</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H50" s="13" t="n">
         <v>2</v>
@@ -9919,7 +12006,7 @@
         <v>70</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H51" s="13" t="n">
         <v>2</v>
@@ -9953,7 +12040,7 @@
         <v>70</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H52" s="13" t="n">
         <v>2</v>
@@ -9987,7 +12074,7 @@
         <v>70</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H53" s="13" t="n">
         <v>2</v>
@@ -10021,7 +12108,7 @@
         <v>70</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H54" s="13" t="n">
         <v>2</v>
@@ -10055,7 +12142,7 @@
         <v>70</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H55" s="13" t="n">
         <v>2</v>
@@ -10089,7 +12176,7 @@
         <v>70</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H56" s="13" t="n">
         <v>2</v>
@@ -10125,9 +12212,7 @@
       <c r="G57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="14" t="s">
         <v>13</v>
@@ -10159,9 +12244,7 @@
       <c r="G58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="14" t="s">
         <v>13</v>
@@ -10415,10 +12498,14 @@
         <v>70</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="H66" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" s="13" t="n">
+        <v>40</v>
+      </c>
       <c r="J66" s="14" t="s">
         <v>13</v>
       </c>
@@ -10447,14 +12534,12 @@
         <v>70</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H67" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="13" t="n">
-        <v>60</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I67" s="13"/>
       <c r="J67" s="14" t="s">
         <v>13</v>
       </c>
@@ -10483,10 +12568,10 @@
         <v>70</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H68" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="14" t="s">
@@ -10517,10 +12602,10 @@
         <v>70</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H69" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="14" t="s">
@@ -10551,10 +12636,10 @@
         <v>70</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H70" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="14" t="s">
@@ -10585,10 +12670,10 @@
         <v>70</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H71" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="14" t="s">
@@ -10619,10 +12704,10 @@
         <v>70</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H72" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="14" t="s">
@@ -10653,7 +12738,7 @@
         <v>70</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H73" s="13" t="n">
         <v>2</v>
@@ -10687,7 +12772,7 @@
         <v>70</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H74" s="13" t="n">
         <v>2</v>
@@ -10721,7 +12806,7 @@
         <v>70</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H75" s="13" t="n">
         <v>2</v>
@@ -10780,39 +12865,39 @@
         <v>0</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="166" formatCode="d\:hh"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,6 +140,12 @@
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -540,7 +546,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -552,10 +558,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.000254582484725051"/>
-          <c:y val="0.0296348034324486"/>
-          <c:w val="0.956542769857434"/>
-          <c:h val="0.925763320694472"/>
+          <c:x val="0.000254588966114209"/>
+          <c:y val="0.0296377607025247"/>
+          <c:w val="0.956516204587693"/>
+          <c:h val="0.925656122143499"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -690,11 +696,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="19711027"/>
-        <c:axId val="32925942"/>
+        <c:axId val="97557677"/>
+        <c:axId val="37942136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="19711027"/>
+        <c:axId val="97557677"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +732,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32925942"/>
+        <c:crossAx val="37942136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -734,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32925942"/>
+        <c:axId val="37942136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19711027"/>
+        <c:crossAx val="97557677"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,9 +818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -823,7 +829,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10829520" y="689400"/>
-        <a:ext cx="14140440" cy="3607560"/>
+        <a:ext cx="14140080" cy="3607200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -837,8 +843,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{8240E270-A98B-4312-BC93-4E2966BDFC3C}">
-  <header guid="{47383B97-56DC-437F-9C8B-B024C0842C34}" dateTime="2021-05-05T04:55:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="27" maxSheetId="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{D6BDE8C8-B37B-44F4-9487-4D0696AFDFD5}">
+  <header guid="{438542FC-33C3-402B-B6C7-8EAC21BC69CE}" dateTime="2021-05-05T04:55:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="27" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -847,7 +853,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{E361EE9E-CF74-4B55-948F-041C572E65B3}" dateTime="2021-05-05T04:56:00.000000000Z" userName=" " r:id="rId2" minRId="28" maxRId="70" maxSheetId="6">
+  <header guid="{EC954D28-1F9B-43C9-BB30-15A1B49252F5}" dateTime="2021-05-05T04:56:00.000000000Z" userName=" " r:id="rId2" minRId="28" maxRId="70" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -856,7 +862,25 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{8240E270-A98B-4312-BC93-4E2966BDFC3C}" dateTime="2021-05-05T04:57:00.000000000Z" userName=" " r:id="rId3" minRId="71" maxRId="115" maxSheetId="6">
+  <header guid="{4D7BCF0F-F61E-4727-9DC7-2E4A6A9E96B9}" dateTime="2021-05-05T04:57:00.000000000Z" userName=" " r:id="rId3" minRId="71" maxRId="115" maxSheetId="6">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1AB4D401-4717-4EB6-8739-30C3AF5B9362}" dateTime="2021-05-05T05:16:00.000000000Z" userName=" " r:id="rId4" minRId="116" maxRId="116" maxSheetId="6">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D6BDE8C8-B37B-44F4-9487-4D0696AFDFD5}" dateTime="2021-05-05T05:25:00.000000000Z" userName=" " r:id="rId5" minRId="117" maxRId="117" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -881,9 +905,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -895,9 +918,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -911,9 +933,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -925,9 +946,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -941,9 +961,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -955,9 +974,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -971,9 +989,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -985,9 +1002,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1001,9 +1017,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1015,9 +1030,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1031,9 +1045,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1045,9 +1058,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1061,9 +1073,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1075,9 +1086,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1091,9 +1101,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1105,9 +1114,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1121,9 +1129,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1135,9 +1142,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1151,9 +1157,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1165,9 +1170,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1181,9 +1185,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1195,9 +1198,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1211,9 +1213,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1225,9 +1226,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1343,9 +1343,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1357,9 +1356,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1373,9 +1371,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1387,9 +1384,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1403,9 +1399,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1417,9 +1412,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1433,9 +1427,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1447,9 +1440,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1463,9 +1455,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1477,9 +1468,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1493,9 +1483,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1507,9 +1496,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1523,9 +1511,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1537,9 +1524,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1553,9 +1539,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1567,9 +1552,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1583,9 +1567,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1597,9 +1580,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1613,9 +1595,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1627,9 +1608,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1643,9 +1623,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1657,9 +1636,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1673,9 +1651,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1687,9 +1664,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1703,9 +1679,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1717,9 +1692,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1733,9 +1707,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1747,9 +1720,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1776,9 +1748,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1790,9 +1761,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1806,9 +1776,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1820,9 +1789,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1836,9 +1804,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1850,9 +1817,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1866,9 +1832,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1880,9 +1845,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1896,9 +1860,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1910,9 +1873,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1926,9 +1888,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1940,9 +1901,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1956,9 +1916,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -1970,9 +1929,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -1986,9 +1944,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2000,9 +1957,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2016,9 +1972,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2030,9 +1985,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2046,9 +2000,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2060,9 +2013,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2076,9 +2028,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2090,9 +2041,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2106,9 +2056,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2120,9 +2069,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2136,9 +2084,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2150,9 +2097,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2166,9 +2112,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2180,9 +2125,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2196,9 +2140,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2210,9 +2153,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2295,9 +2237,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2309,9 +2250,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2325,9 +2265,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2339,9 +2278,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2355,9 +2293,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2369,9 +2306,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2385,9 +2321,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2399,9 +2334,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2415,9 +2349,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2429,9 +2362,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2445,9 +2377,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2459,9 +2390,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2475,9 +2405,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2489,9 +2418,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2505,9 +2433,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2519,9 +2446,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2535,9 +2461,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2549,9 +2474,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2565,9 +2489,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OFF</t>
@@ -2579,9 +2502,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2595,9 +2517,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2611,9 +2532,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2627,9 +2547,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2643,9 +2562,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2659,9 +2577,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2776,9 +2693,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2793,9 +2709,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2810,9 +2725,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2827,9 +2741,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2844,9 +2757,8 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ON</t>
@@ -2920,6 +2832,76 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="116" ua="false" sId="3">
+    <oc r="G4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="117" ua="false" sId="3">
+    <oc r="G4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ON</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G4" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OFF</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
 </file>
@@ -7839,8 +7821,8 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10345,8 +10327,8 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I82" activeCellId="0" sqref="I82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H59" activeCellId="0" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ImportData/userSchedule.xlsx
+++ b/ImportData/userSchedule.xlsx
@@ -546,7 +546,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -696,11 +696,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="95160204"/>
-        <c:axId val="45053581"/>
+        <c:axId val="17515302"/>
+        <c:axId val="12724049"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95160204"/>
+        <c:axId val="17515302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +732,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45053581"/>
+        <c:crossAx val="12724049"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45053581"/>
+        <c:axId val="12724049"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,7 +779,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95160204"/>
+        <c:crossAx val="17515302"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,8 +843,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{B8F3D164-E5E2-4E2D-8752-5B321A495E01}">
-  <header guid="{F2A96268-BB54-4938-8178-48904C4BE962}" dateTime="2021-05-05T04:55:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="27" maxSheetId="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{E9A3E3BF-F15B-4307-9475-D66706D455C1}">
+  <header guid="{30BB568D-2A13-46DA-9FAF-EECD6DB5B51A}" dateTime="2021-05-05T04:55:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="27" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -853,7 +853,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{A13E501A-AB8C-4DB1-8730-7A52C8D90E29}" dateTime="2021-05-05T04:56:00.000000000Z" userName=" " r:id="rId2" minRId="28" maxRId="70" maxSheetId="6">
+  <header guid="{A7AAD8F5-C0A0-4387-9D54-39878B27EE22}" dateTime="2021-05-05T04:56:00.000000000Z" userName=" " r:id="rId2" minRId="28" maxRId="70" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -862,7 +862,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{91EEFF57-4960-4E84-80BC-D521C31705C8}" dateTime="2021-05-05T04:57:00.000000000Z" userName=" " r:id="rId3" minRId="71" maxRId="115" maxSheetId="6">
+  <header guid="{0540EE08-ECDC-4ADF-B0FB-89F8713D3D83}" dateTime="2021-05-05T04:57:00.000000000Z" userName=" " r:id="rId3" minRId="71" maxRId="115" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -871,7 +871,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{96899040-2340-42CC-8C74-61AC02228C28}" dateTime="2021-05-05T05:16:00.000000000Z" userName=" " r:id="rId4" minRId="116" maxRId="116" maxSheetId="6">
+  <header guid="{D58F4507-D075-4E80-B9F3-DB6ECE8E58F0}" dateTime="2021-05-05T05:16:00.000000000Z" userName=" " r:id="rId4" minRId="116" maxRId="116" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -880,7 +880,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{B50225C7-8F78-4EDF-B6AA-A1D7692EBAA4}" dateTime="2021-05-05T05:25:00.000000000Z" userName=" " r:id="rId5" minRId="117" maxRId="117" maxSheetId="6">
+  <header guid="{0ED56625-3E65-4C24-92CE-4DAD33DC7FFF}" dateTime="2021-05-05T05:25:00.000000000Z" userName=" " r:id="rId5" minRId="117" maxRId="117" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -889,7 +889,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{A4FC0700-015A-4DF3-8717-7B6082DFE94A}" dateTime="2021-05-05T19:44:00.000000000Z" userName=" " r:id="rId6" minRId="118" maxRId="369" maxSheetId="6">
+  <header guid="{562C766E-04B7-425A-A48D-F88E62D39F0F}" dateTime="2021-05-05T19:44:00.000000000Z" userName=" " r:id="rId6" minRId="118" maxRId="369" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -898,7 +898,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{E42B5743-AA71-4CA1-932E-23D93D15A013}" dateTime="2021-05-05T19:45:00.000000000Z" userName=" " r:id="rId7" minRId="370" maxRId="382" maxSheetId="6">
+  <header guid="{084AC157-06C6-4CC7-ACC2-6ABE181ABE49}" dateTime="2021-05-05T19:45:00.000000000Z" userName=" " r:id="rId7" minRId="370" maxRId="382" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -907,7 +907,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{515A37E4-D5BB-4777-B71F-6950AC4F914C}" dateTime="2021-05-05T19:46:00.000000000Z" userName=" " r:id="rId8" minRId="383" maxRId="401" maxSheetId="6">
+  <header guid="{F945C009-ABD6-4F28-9961-3E8E6C1E41DE}" dateTime="2021-05-05T19:46:00.000000000Z" userName=" " r:id="rId8" minRId="383" maxRId="401" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -916,7 +916,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{4ED40DE1-2CA9-477A-A82C-C95D4A1F624E}" dateTime="2021-05-05T19:47:00.000000000Z" userName=" " r:id="rId9" minRId="402" maxRId="424" maxSheetId="6">
+  <header guid="{D76E3FCD-42C3-4F14-A2F3-AD0D07B45032}" dateTime="2021-05-05T19:47:00.000000000Z" userName=" " r:id="rId9" minRId="402" maxRId="424" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -925,7 +925,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{1D56A24F-7C5F-4AF4-AA31-1489B9781BD8}" dateTime="2021-05-05T19:48:00.000000000Z" userName=" " r:id="rId10" minRId="425" maxRId="454" maxSheetId="6">
+  <header guid="{7339AA7A-8B74-4754-8931-3B77ADE08FEA}" dateTime="2021-05-05T19:48:00.000000000Z" userName=" " r:id="rId10" minRId="425" maxRId="454" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -934,7 +934,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{6C4AD006-6EF8-4EE9-8A98-62FB66B4FB9C}" dateTime="2021-05-05T19:49:00.000000000Z" userName=" " r:id="rId11" minRId="455" maxRId="463" maxSheetId="6">
+  <header guid="{1D81CDAA-BD2C-46B9-86C2-0842D6A127FC}" dateTime="2021-05-05T19:49:00.000000000Z" userName=" " r:id="rId11" minRId="455" maxRId="463" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -943,7 +943,7 @@
       <sheetId val="5"/>
     </sheetIdMap>
   </header>
-  <header guid="{B8F3D164-E5E2-4E2D-8752-5B321A495E01}" dateTime="2021-05-05T19:50:00.000000000Z" userName=" " r:id="rId12" minRId="464" maxRId="470" maxSheetId="6">
+  <header guid="{E9A3E3BF-F15B-4307-9475-D66706D455C1}" dateTime="2021-05-05T19:50:00.000000000Z" userName=" " r:id="rId12" minRId="464" maxRId="470" maxSheetId="6">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -11672,8 +11672,8 @@
   </sheetPr>
   <dimension ref="B2:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H91" activeCellId="0" sqref="H91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
